--- a/bean-transform-tool/doc/基准测试报告.xlsx
+++ b/bean-transform-tool/doc/基准测试报告.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
     <sheet name="mapstruct" sheetId="2" r:id="rId2"/>
     <sheet name="beanhandler" sheetId="3" r:id="rId3"/>
     <sheet name="manual" sheetId="4" r:id="rId4"/>
-    <sheet name="汇总" sheetId="5" r:id="rId5"/>
+    <sheet name="selmaMapper" sheetId="6" r:id="rId5"/>
+    <sheet name="汇总" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="beanHandler" localSheetId="2">beanhandler!$A$1:$B$50</definedName>
-    <definedName name="manual" localSheetId="3">manual!$A$1:$B$50</definedName>
-    <definedName name="mapStruct" localSheetId="1">mapstruct!$A$1:$B$50</definedName>
-    <definedName name="spring" localSheetId="0">spring!$A$1:$B$50</definedName>
+    <definedName name="beanHandler_1" localSheetId="2">beanhandler!$A$1:$B$100</definedName>
+    <definedName name="manual_1" localSheetId="3">manual!$A$1:$B$50</definedName>
+    <definedName name="mapStruct_1" localSheetId="1">mapstruct!$A$1:$B$50</definedName>
+    <definedName name="SelmaMapper" localSheetId="4">selmaMapper!$A$1:$B$50</definedName>
+    <definedName name="spring_1" localSheetId="0">spring!$A$1:$B$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="beanHandler" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="936" sourceFile="D:\github projects\opensource-bean-transform-tool\bean-transform-tool\doc\beanHandler.txt" tab="0" delimiter=":">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\beanHandler.txt" tab="0" delimiter=":">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -39,7 +41,7 @@
     </textPr>
   </connection>
   <connection id="2" name="manual" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="936" sourceFile="D:\github projects\opensource-bean-transform-tool\bean-transform-tool\doc\manual.txt" tab="0" delimiter=":">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\manual.txt" tab="0" delimiter=":">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -47,15 +49,23 @@
     </textPr>
   </connection>
   <connection id="3" name="mapStruct" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="936" sourceFile="D:\github projects\opensource-bean-transform-tool\bean-transform-tool\doc\mapStruct.txt" tab="0" delimiter=":">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\mapStruct.txt" tab="0" delimiter=":">
       <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="spring" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="936" sourceFile="D:\github projects\opensource-bean-transform-tool\bean-transform-tool\doc\spring.txt" tab="0" delimiter=":">
+  <connection id="4" name="SelmaMapper" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\SelmaMapper.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="spring" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\spring.txt" tab="0" delimiter=":">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -66,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="105">
   <si>
     <t>Iteration   1</t>
   </si>
@@ -232,6 +242,159 @@
   <si>
     <t>自研BeanTransform</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelmaMapper</t>
+  </si>
+  <si>
+    <t>Iteration  51</t>
+  </si>
+  <si>
+    <t>Iteration  52</t>
+  </si>
+  <si>
+    <t>Iteration  53</t>
+  </si>
+  <si>
+    <t>Iteration  54</t>
+  </si>
+  <si>
+    <t>Iteration  55</t>
+  </si>
+  <si>
+    <t>Iteration  56</t>
+  </si>
+  <si>
+    <t>Iteration  57</t>
+  </si>
+  <si>
+    <t>Iteration  58</t>
+  </si>
+  <si>
+    <t>Iteration  59</t>
+  </si>
+  <si>
+    <t>Iteration  60</t>
+  </si>
+  <si>
+    <t>Iteration  61</t>
+  </si>
+  <si>
+    <t>Iteration  62</t>
+  </si>
+  <si>
+    <t>Iteration  63</t>
+  </si>
+  <si>
+    <t>Iteration  64</t>
+  </si>
+  <si>
+    <t>Iteration  65</t>
+  </si>
+  <si>
+    <t>Iteration  66</t>
+  </si>
+  <si>
+    <t>Iteration  67</t>
+  </si>
+  <si>
+    <t>Iteration  68</t>
+  </si>
+  <si>
+    <t>Iteration  69</t>
+  </si>
+  <si>
+    <t>Iteration  70</t>
+  </si>
+  <si>
+    <t>Iteration  71</t>
+  </si>
+  <si>
+    <t>Iteration  72</t>
+  </si>
+  <si>
+    <t>Iteration  73</t>
+  </si>
+  <si>
+    <t>Iteration  74</t>
+  </si>
+  <si>
+    <t>Iteration  75</t>
+  </si>
+  <si>
+    <t>Iteration  76</t>
+  </si>
+  <si>
+    <t>Iteration  77</t>
+  </si>
+  <si>
+    <t>Iteration  78</t>
+  </si>
+  <si>
+    <t>Iteration  79</t>
+  </si>
+  <si>
+    <t>Iteration  80</t>
+  </si>
+  <si>
+    <t>Iteration  81</t>
+  </si>
+  <si>
+    <t>Iteration  82</t>
+  </si>
+  <si>
+    <t>Iteration  83</t>
+  </si>
+  <si>
+    <t>Iteration  84</t>
+  </si>
+  <si>
+    <t>Iteration  85</t>
+  </si>
+  <si>
+    <t>Iteration  86</t>
+  </si>
+  <si>
+    <t>Iteration  87</t>
+  </si>
+  <si>
+    <t>Iteration  88</t>
+  </si>
+  <si>
+    <t>Iteration  89</t>
+  </si>
+  <si>
+    <t>Iteration  90</t>
+  </si>
+  <si>
+    <t>Iteration  91</t>
+  </si>
+  <si>
+    <t>Iteration  92</t>
+  </si>
+  <si>
+    <t>Iteration  93</t>
+  </si>
+  <si>
+    <t>Iteration  94</t>
+  </si>
+  <si>
+    <t>Iteration  95</t>
+  </si>
+  <si>
+    <t>Iteration  96</t>
+  </si>
+  <si>
+    <t>Iteration  97</t>
+  </si>
+  <si>
+    <t>Iteration  98</t>
+  </si>
+  <si>
+    <t>Iteration  99</t>
+  </si>
+  <si>
+    <t>Iteration 100</t>
   </si>
 </sst>
 </file>
@@ -426,154 +589,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>403459.196</c:v>
+                  <c:v>373203.34299999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>386143.41100000002</c:v>
+                  <c:v>377444.42200000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>391051.05200000003</c:v>
+                  <c:v>374025.47600000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>414991.33100000001</c:v>
+                  <c:v>438136.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>387587.59499999997</c:v>
+                  <c:v>442184.09499999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>385702.71799999999</c:v>
+                  <c:v>442390.34100000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>403251.96600000001</c:v>
+                  <c:v>438816.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>260167.095</c:v>
+                  <c:v>460932.42700000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>403108.28200000001</c:v>
+                  <c:v>471511.44199999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>372942.52600000001</c:v>
+                  <c:v>434441.45699999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>386116.09600000002</c:v>
+                  <c:v>366311.71600000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>403421.82</c:v>
+                  <c:v>438451.837</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>399665.00099999999</c:v>
+                  <c:v>479867.603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>390328.20600000001</c:v>
+                  <c:v>433623.47399999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>387284.77500000002</c:v>
+                  <c:v>409650.26400000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>410407.24200000003</c:v>
+                  <c:v>383396.26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>411265.951</c:v>
+                  <c:v>393287.78200000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>380131.864</c:v>
+                  <c:v>414911.48200000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>398503.815</c:v>
+                  <c:v>388847.12400000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>410512.50300000003</c:v>
+                  <c:v>415421.67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>394119.951</c:v>
+                  <c:v>412131.66200000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>372231.65700000001</c:v>
+                  <c:v>415956.01500000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>295129.83299999998</c:v>
+                  <c:v>411291.28100000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>331959.929</c:v>
+                  <c:v>435775.23800000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>333856.40000000002</c:v>
+                  <c:v>452381.49099999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>335730.77600000001</c:v>
+                  <c:v>425381.59600000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>359195.29499999998</c:v>
+                  <c:v>443308.76199999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>358976.071</c:v>
+                  <c:v>492776.29700000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>360531.75799999997</c:v>
+                  <c:v>501212.451</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>361335.23100000003</c:v>
+                  <c:v>486738.28899999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>371411.86800000002</c:v>
+                  <c:v>470486.09899999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>324902.09899999999</c:v>
+                  <c:v>409277.38900000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>389808.136</c:v>
+                  <c:v>511314.97200000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>362208.89399999997</c:v>
+                  <c:v>500068.20899999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>360175.42200000002</c:v>
+                  <c:v>492808.19400000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>340617.62900000002</c:v>
+                  <c:v>458321.375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>300266.34899999999</c:v>
+                  <c:v>496474.51199999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>251706.12599999999</c:v>
+                  <c:v>502106.217</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>286719.35700000002</c:v>
+                  <c:v>495598.49599999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>288082.70299999998</c:v>
+                  <c:v>499520.25799999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>380440.02799999999</c:v>
+                  <c:v>480741.74200000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>376746.15600000002</c:v>
+                  <c:v>495820.36</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>391751.636</c:v>
+                  <c:v>499931.598</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>397724.20400000003</c:v>
+                  <c:v>488200.27299999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>393538.66700000002</c:v>
+                  <c:v>509662.353</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>382112.38</c:v>
+                  <c:v>468465.98700000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>377399.01500000001</c:v>
+                  <c:v>455077.84100000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>373550.48700000002</c:v>
+                  <c:v>491576.821</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>375381.859</c:v>
+                  <c:v>474357.76000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>396725.76199999999</c:v>
+                  <c:v>473237.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,154 +794,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4610587.7970000003</c:v>
+                  <c:v>4284492.8150000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4975039.1540000001</c:v>
+                  <c:v>4265868.8150000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5004768.9289999995</c:v>
+                  <c:v>4239683.4970000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5080235.2039999999</c:v>
+                  <c:v>4222349.9879999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5085061.7790000001</c:v>
+                  <c:v>4005141.6570000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5129881.1619999995</c:v>
+                  <c:v>4187539.9180000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5181750.9349999996</c:v>
+                  <c:v>4231087.8600000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5142823.3099999996</c:v>
+                  <c:v>3946052.3870000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5055909.1770000001</c:v>
+                  <c:v>4290765.858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5094991.608</c:v>
+                  <c:v>4252997.4050000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5092776.4110000003</c:v>
+                  <c:v>4339534.273</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5030443.523</c:v>
+                  <c:v>4291380.8770000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5202343.6900000004</c:v>
+                  <c:v>4281181.6619999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5056755.7050000001</c:v>
+                  <c:v>4235018.8830000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4880425.5190000003</c:v>
+                  <c:v>4241051.216</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5147286.7960000001</c:v>
+                  <c:v>4249358.8729999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5127667.2580000004</c:v>
+                  <c:v>4300449.0559999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5136723.49</c:v>
+                  <c:v>4118219.8190000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5068759.97</c:v>
+                  <c:v>3789736.1340000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5086331.676</c:v>
+                  <c:v>4172425.5830000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5087265.0209999997</c:v>
+                  <c:v>4260975.03</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5085700.2139999997</c:v>
+                  <c:v>4236047.0269999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5129693.0010000002</c:v>
+                  <c:v>4247026.4989999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5092997.1330000004</c:v>
+                  <c:v>4268860.5439999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5146713.9879999999</c:v>
+                  <c:v>4233759.2019999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5155951.5889999997</c:v>
+                  <c:v>4251264.9970000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5110481.7230000002</c:v>
+                  <c:v>4221658.43</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4930210.057</c:v>
+                  <c:v>4204783.4859999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5033928.8830000004</c:v>
+                  <c:v>3997705.1370000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5111669.4630000005</c:v>
+                  <c:v>4245276.4040000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5152104.5410000002</c:v>
+                  <c:v>4202080.5729999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4987697.966</c:v>
+                  <c:v>4314411.1670000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3543611.4410000001</c:v>
+                  <c:v>4460442.6909999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4909632.8459999999</c:v>
+                  <c:v>4265597.3039999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5105444.8540000003</c:v>
+                  <c:v>4325296.7130000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5138001.1409999998</c:v>
+                  <c:v>3846071.0260000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5103124.0590000004</c:v>
+                  <c:v>4446410.3660000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5022801.3569999998</c:v>
+                  <c:v>4618464.1770000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5098825.1229999997</c:v>
+                  <c:v>4481810.4239999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5106320.9330000002</c:v>
+                  <c:v>4782709.9220000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4947194.9309999999</c:v>
+                  <c:v>4931538.4800000004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5165934.9579999996</c:v>
+                  <c:v>4902833.7889999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5039100.5750000002</c:v>
+                  <c:v>4511960.1550000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5002014.9620000003</c:v>
+                  <c:v>4896885.1109999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5133142.8269999996</c:v>
+                  <c:v>4881730.1490000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5091123.1390000004</c:v>
+                  <c:v>4900660.5820000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5091559.665</c:v>
+                  <c:v>4860670.7709999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5135323.7070000004</c:v>
+                  <c:v>4977791.0159999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5096261.102</c:v>
+                  <c:v>4868579.4850000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4675815.3310000002</c:v>
+                  <c:v>4336170.4910000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,154 +1002,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>6882622.8260000004</c:v>
+                  <c:v>6574828.4919999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6826251.7989999996</c:v>
+                  <c:v>6579724.1969999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6883880.6900000004</c:v>
+                  <c:v>6718278.8480000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6066850.0520000001</c:v>
+                  <c:v>6637470.3940000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6139670.8300000001</c:v>
+                  <c:v>6719385.2319999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5850895.2659999998</c:v>
+                  <c:v>6721675.2520000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5981667.8880000003</c:v>
+                  <c:v>6787526.0140000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6870892.8320000004</c:v>
+                  <c:v>6678557.1840000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6868434.2929999996</c:v>
+                  <c:v>6882632.9939999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6960263.9699999997</c:v>
+                  <c:v>6796464.693</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6978081.3689999999</c:v>
+                  <c:v>6668057.5310000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6968640.3899999997</c:v>
+                  <c:v>6641581.2359999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6902051.0159999998</c:v>
+                  <c:v>6789039.6500000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6928768.96</c:v>
+                  <c:v>6815968.7910000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6888341.1919999998</c:v>
+                  <c:v>6750945.1399999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6881863.9970000004</c:v>
+                  <c:v>6773320.4380000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6885256.6840000004</c:v>
+                  <c:v>6836207.5109999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6885077.2350000003</c:v>
+                  <c:v>6717376.1179999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6833074.3949999996</c:v>
+                  <c:v>6781721.6320000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6908969.7089999998</c:v>
+                  <c:v>6758113.0650000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6932040.7379999999</c:v>
+                  <c:v>6835551.8370000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6956895.1940000001</c:v>
+                  <c:v>6723766.6449999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6950687.9500000002</c:v>
+                  <c:v>6819220.8439999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6922534.3140000002</c:v>
+                  <c:v>6014697.2280000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6923185.4280000003</c:v>
+                  <c:v>5664524.6749999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6751180.551</c:v>
+                  <c:v>5678790.4469999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5248027.1770000001</c:v>
+                  <c:v>6530805.1129999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6220270.0710000005</c:v>
+                  <c:v>6588265.3080000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6952542.0410000002</c:v>
+                  <c:v>6965420.9979999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6917086.5920000002</c:v>
+                  <c:v>6765932.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6900702.568</c:v>
+                  <c:v>6652757.2130000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6843714.8710000003</c:v>
+                  <c:v>6760267.6150000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5801966.7819999997</c:v>
+                  <c:v>6699864.4450000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6377185.5460000001</c:v>
+                  <c:v>6668058.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6357635.4289999995</c:v>
+                  <c:v>6760301.5779999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6761401.6660000002</c:v>
+                  <c:v>6769012.8720000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6846322.8810000001</c:v>
+                  <c:v>6819564.6390000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6782777.4519999996</c:v>
+                  <c:v>6832990.4349999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6976540.5580000002</c:v>
+                  <c:v>6729688.6840000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6967287.1109999996</c:v>
+                  <c:v>6703453.4270000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6778581.8020000001</c:v>
+                  <c:v>6643674.9060000004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6827922.625</c:v>
+                  <c:v>6897703.659</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6813307.3399999999</c:v>
+                  <c:v>6815845.4060000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7003435.2400000002</c:v>
+                  <c:v>6748202.2280000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6800721.5829999996</c:v>
+                  <c:v>6729638.5789999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6925920.6689999998</c:v>
+                  <c:v>6804433.4460000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6937703.5599999996</c:v>
+                  <c:v>6783560.3679999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6838358.6890000002</c:v>
+                  <c:v>6891088.3219999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6918666.6780000003</c:v>
+                  <c:v>5202727.0369999995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6902544.4400000004</c:v>
+                  <c:v>6229509.551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,154 +1211,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>7240212.8700000001</c:v>
+                  <c:v>5826101.2029999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7221369.9280000003</c:v>
+                  <c:v>6770340.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7280058.5329999998</c:v>
+                  <c:v>6863338.6950000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7306551.2359999996</c:v>
+                  <c:v>6822207.3530000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7286755.9689999996</c:v>
+                  <c:v>6553346.2340000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7268111.4560000002</c:v>
+                  <c:v>6532685.2470000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7319724.4019999998</c:v>
+                  <c:v>7151940.3449999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7394809.7570000002</c:v>
+                  <c:v>7015257.2640000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7402239.7779999999</c:v>
+                  <c:v>6940680.1189999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7276898.0559999999</c:v>
+                  <c:v>7155536.6540000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7347201.4029999999</c:v>
+                  <c:v>7135713.0920000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7289108.3870000001</c:v>
+                  <c:v>7060835.1069999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7305271.267</c:v>
+                  <c:v>6387694.2580000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7283068.4670000002</c:v>
+                  <c:v>7151227.7570000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7360001.6490000002</c:v>
+                  <c:v>7140940.2989999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7322456.9479999999</c:v>
+                  <c:v>7171577.9680000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7313055.443</c:v>
+                  <c:v>6995419.2379999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7378118.0539999995</c:v>
+                  <c:v>7108712.6809999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7386106.9670000002</c:v>
+                  <c:v>7025913.4040000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7257792.023</c:v>
+                  <c:v>7223464.8090000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5855165.1639999999</c:v>
+                  <c:v>6398955.4570000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6164712.6440000003</c:v>
+                  <c:v>6851507.7750000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7277964.9699999997</c:v>
+                  <c:v>7127715.4029999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7313634.0470000003</c:v>
+                  <c:v>7168127.301</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7343161.9539999999</c:v>
+                  <c:v>7231510.9689999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7324219.3490000004</c:v>
+                  <c:v>6490041.9919999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6034380.3660000004</c:v>
+                  <c:v>6786489.5089999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6641826.9160000002</c:v>
+                  <c:v>7129039.0120000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7164064.7869999995</c:v>
+                  <c:v>7062908.0099999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7248043.1189999999</c:v>
+                  <c:v>7102681.0599999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7342190.9579999996</c:v>
+                  <c:v>7155618.7230000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7235329.176</c:v>
+                  <c:v>7161055.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7253387.3870000001</c:v>
+                  <c:v>7097822.4809999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7403090.5410000002</c:v>
+                  <c:v>6940269.7479999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7385979.1179999998</c:v>
+                  <c:v>6833421.0080000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7274482.915</c:v>
+                  <c:v>6737051.7790000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7328812.8969999999</c:v>
+                  <c:v>7214096.7740000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7317793.4040000001</c:v>
+                  <c:v>7166316.4330000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7330093.0010000002</c:v>
+                  <c:v>7154148.5429999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7058416.3660000004</c:v>
+                  <c:v>7101875.7060000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7288708.4009999996</c:v>
+                  <c:v>6456127.1710000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7151899.9939999999</c:v>
+                  <c:v>7074647.625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7430922.2410000004</c:v>
+                  <c:v>7106993.2240000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7369047.3760000002</c:v>
+                  <c:v>7184932.1370000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7261667.2709999997</c:v>
+                  <c:v>7221768.3849999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6250891.9720000001</c:v>
+                  <c:v>7089316.4879999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7000760.0659999996</c:v>
+                  <c:v>6674919.6509999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7361706.8590000002</c:v>
+                  <c:v>6874631.398</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7267799.1960000005</c:v>
+                  <c:v>7119831.443</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7400191.5209999997</c:v>
+                  <c:v>7088296.6380000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,6 +1367,217 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E307-4804-9D49-3C0D654ED9AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>汇总!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelmaMapper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>汇总!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>7262458.9850000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7028776.2379999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6157115.3949999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6517188.6189999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6935736.7209999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6412010.0899999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6387084.5580000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6553427.6050000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6540114.5630000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6804148.6519999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5246285.5690000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5749435.2470000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6340861.6359999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6861154.5860000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6883406.7209999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7080772.7740000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6966536.0939999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6170025.7249999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5851727.9759999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5597424.9589999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5932766.8650000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6083257.0499999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6371856.5190000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7132764.3839999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6440410.9330000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6098206.4050000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5695503.1909999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6676267.3619999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5877572.9280000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5998304.4009999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6424080.3039999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5273422.4560000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6317640.5920000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6689549.915</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6943945.6399999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6738459.449</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6555959.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6737773.2800000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6654618.807</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6771464.8279999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6296557.1359999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7000313.3909999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6387826.0080000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6134151.7429999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5458365.7410000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6246616.5880000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5432047.034</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5878033.8669999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6018899.6909999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6225523.6160000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86DA-46F5-A617-110D5577BD4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2112,15 +2486,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2143,19 +2517,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="spring" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="spring_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mapStruct" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mapStruct_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="beanHandler" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="beanHandler_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="manual" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="manual_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SelmaMapper" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2441,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>403459.196</v>
+        <v>373203.34299999999</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>386143.41100000002</v>
+        <v>377444.42200000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>391051.05200000003</v>
+        <v>374025.47600000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>414991.33100000001</v>
+        <v>438136.39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>387587.59499999997</v>
+        <v>442184.09499999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2859,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>385702.71799999999</v>
+        <v>442390.34100000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>403251.96600000001</v>
+        <v>438816.22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>260167.095</v>
+        <v>460932.42700000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2883,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>403108.28200000001</v>
+        <v>471511.44199999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>372942.52600000001</v>
+        <v>434441.45699999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2899,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>386116.09600000002</v>
+        <v>366311.71600000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,7 +2907,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>403421.82</v>
+        <v>438451.837</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>399665.00099999999</v>
+        <v>479867.603</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,7 +2923,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>390328.20600000001</v>
+        <v>433623.47399999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +2931,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>387284.77500000002</v>
+        <v>409650.26400000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,7 +2939,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>410407.24200000003</v>
+        <v>383396.26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2569,7 +2947,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>411265.951</v>
+        <v>393287.78200000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,7 +2955,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>380131.864</v>
+        <v>414911.48200000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2963,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>398503.815</v>
+        <v>388847.12400000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2971,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>410512.50300000003</v>
+        <v>415421.67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2601,7 +2979,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>394119.951</v>
+        <v>412131.66200000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2609,7 +2987,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>372231.65700000001</v>
+        <v>415956.01500000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2995,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>295129.83299999998</v>
+        <v>411291.28100000002</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2625,7 +3003,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>331959.929</v>
+        <v>435775.23800000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2633,7 +3011,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>333856.40000000002</v>
+        <v>452381.49099999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +3019,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>335730.77600000001</v>
+        <v>425381.59600000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +3027,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>359195.29499999998</v>
+        <v>443308.76199999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +3035,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>358976.071</v>
+        <v>492776.29700000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,7 +3043,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>360531.75799999997</v>
+        <v>501212.451</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2673,7 +3051,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>361335.23100000003</v>
+        <v>486738.28899999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2681,7 +3059,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>371411.86800000002</v>
+        <v>470486.09899999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,7 +3067,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>324902.09899999999</v>
+        <v>409277.38900000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +3075,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>389808.136</v>
+        <v>511314.97200000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +3083,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>362208.89399999997</v>
+        <v>500068.20899999997</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +3091,7 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>360175.42200000002</v>
+        <v>492808.19400000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +3099,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>340617.62900000002</v>
+        <v>458321.375</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +3107,7 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>300266.34899999999</v>
+        <v>496474.51199999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,7 +3115,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>251706.12599999999</v>
+        <v>502106.217</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>286719.35700000002</v>
+        <v>495598.49599999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,7 +3131,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>288082.70299999998</v>
+        <v>499520.25799999997</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2761,7 +3139,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>380440.02799999999</v>
+        <v>480741.74200000003</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2769,7 +3147,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>376746.15600000002</v>
+        <v>495820.36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +3155,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>391751.636</v>
+        <v>499931.598</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +3163,7 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>397724.20400000003</v>
+        <v>488200.27299999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +3171,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>393538.66700000002</v>
+        <v>509662.353</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +3179,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>382112.38</v>
+        <v>468465.98700000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2809,7 +3187,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>377399.01500000001</v>
+        <v>455077.84100000001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +3195,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>373550.48700000002</v>
+        <v>491576.821</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +3203,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>375381.859</v>
+        <v>474357.76000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2833,7 +3211,7 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>396725.76199999999</v>
+        <v>473237.9</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4610587.7970000003</v>
+        <v>4284492.8150000004</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4975039.1540000001</v>
+        <v>4265868.8150000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5004768.9289999995</v>
+        <v>4239683.4970000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5080235.2039999999</v>
+        <v>4222349.9879999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +3274,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5085061.7790000001</v>
+        <v>4005141.6570000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,7 +3282,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5129881.1619999995</v>
+        <v>4187539.9180000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +3290,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5181750.9349999996</v>
+        <v>4231087.8600000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +3298,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5142823.3099999996</v>
+        <v>3946052.3870000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5055909.1770000001</v>
+        <v>4290765.858</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2936,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5094991.608</v>
+        <v>4252997.4050000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5092776.4110000003</v>
+        <v>4339534.273</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +3330,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5030443.523</v>
+        <v>4291380.8770000003</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5202343.6900000004</v>
+        <v>4281181.6619999995</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +3346,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5056755.7050000001</v>
+        <v>4235018.8830000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2976,7 +3354,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4880425.5190000003</v>
+        <v>4241051.216</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5147286.7960000001</v>
+        <v>4249358.8729999997</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +3370,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5127667.2580000004</v>
+        <v>4300449.0559999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +3378,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5136723.49</v>
+        <v>4118219.8190000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +3386,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5068759.97</v>
+        <v>3789736.1340000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3394,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5086331.676</v>
+        <v>4172425.5830000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3402,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>5087265.0209999997</v>
+        <v>4260975.03</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3410,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>5085700.2139999997</v>
+        <v>4236047.0269999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3418,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>5129693.0010000002</v>
+        <v>4247026.4989999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3426,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>5092997.1330000004</v>
+        <v>4268860.5439999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3434,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>5146713.9879999999</v>
+        <v>4233759.2019999996</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3442,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>5155951.5889999997</v>
+        <v>4251264.9970000004</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3450,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>5110481.7230000002</v>
+        <v>4221658.43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +3458,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>4930210.057</v>
+        <v>4204783.4859999996</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3466,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>5033928.8830000004</v>
+        <v>3997705.1370000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3474,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>5111669.4630000005</v>
+        <v>4245276.4040000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +3482,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>5152104.5410000002</v>
+        <v>4202080.5729999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3490,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>4987697.966</v>
+        <v>4314411.1670000004</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3498,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>3543611.4410000001</v>
+        <v>4460442.6909999996</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3506,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>4909632.8459999999</v>
+        <v>4265597.3039999995</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3514,7 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>5105444.8540000003</v>
+        <v>4325296.7130000005</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3522,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>5138001.1409999998</v>
+        <v>3846071.0260000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3530,7 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>5103124.0590000004</v>
+        <v>4446410.3660000004</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3538,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>5022801.3569999998</v>
+        <v>4618464.1770000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>5098825.1229999997</v>
+        <v>4481810.4239999996</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3554,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>5106320.9330000002</v>
+        <v>4782709.9220000003</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3562,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>4947194.9309999999</v>
+        <v>4931538.4800000004</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3570,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>5165934.9579999996</v>
+        <v>4902833.7889999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,7 +3578,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>5039100.5750000002</v>
+        <v>4511960.1550000003</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3586,7 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>5002014.9620000003</v>
+        <v>4896885.1109999996</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3216,7 +3594,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>5133142.8269999996</v>
+        <v>4881730.1490000002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,7 +3602,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>5091123.1390000004</v>
+        <v>4900660.5820000004</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3232,7 +3610,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>5091559.665</v>
+        <v>4860670.7709999997</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3240,7 +3618,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>5135323.7070000004</v>
+        <v>4977791.0159999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3248,7 +3626,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>5096261.102</v>
+        <v>4868579.4850000003</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3256,7 +3634,7 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>4675815.3310000002</v>
+        <v>4336170.4910000004</v>
       </c>
     </row>
   </sheetData>
@@ -3267,15 +3645,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B50"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3284,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6882622.8260000004</v>
+        <v>6574828.4919999996</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6826251.7989999996</v>
+        <v>6579724.1969999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6883880.6900000004</v>
+        <v>6718278.8480000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3686,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6066850.0520000001</v>
+        <v>6637470.3940000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3694,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6139670.8300000001</v>
+        <v>6719385.2319999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3702,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5850895.2659999998</v>
+        <v>6721675.2520000003</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3710,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5981667.8880000003</v>
+        <v>6787526.0140000004</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3718,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6870892.8320000004</v>
+        <v>6678557.1840000004</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3726,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6868434.2929999996</v>
+        <v>6882632.9939999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3734,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6960263.9699999997</v>
+        <v>6796464.693</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6978081.3689999999</v>
+        <v>6668057.5310000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3750,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6968640.3899999997</v>
+        <v>6641581.2359999996</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6902051.0159999998</v>
+        <v>6789039.6500000004</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3766,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6928768.96</v>
+        <v>6815968.7910000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3774,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6888341.1919999998</v>
+        <v>6750945.1399999997</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3782,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>6881863.9970000004</v>
+        <v>6773320.4380000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3790,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6885256.6840000004</v>
+        <v>6836207.5109999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3798,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6885077.2350000003</v>
+        <v>6717376.1179999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3806,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6833074.3949999996</v>
+        <v>6781721.6320000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3814,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6908969.7089999998</v>
+        <v>6758113.0650000004</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3822,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6932040.7379999999</v>
+        <v>6835551.8370000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3830,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6956895.1940000001</v>
+        <v>6723766.6449999996</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3838,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6950687.9500000002</v>
+        <v>6819220.8439999996</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3846,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6922534.3140000002</v>
+        <v>6014697.2280000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3854,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6923185.4280000003</v>
+        <v>5664524.6749999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3862,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6751180.551</v>
+        <v>5678790.4469999997</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3870,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>5248027.1770000001</v>
+        <v>6530805.1129999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3878,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6220270.0710000005</v>
+        <v>6588265.3080000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3886,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6952542.0410000002</v>
+        <v>6965420.9979999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3894,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6917086.5920000002</v>
+        <v>6765932.2000000002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3902,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6900702.568</v>
+        <v>6652757.2130000005</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3910,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6843714.8710000003</v>
+        <v>6760267.6150000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3918,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>5801966.7819999997</v>
+        <v>6699864.4450000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3926,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6377185.5460000001</v>
+        <v>6668058.9000000004</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3934,7 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6357635.4289999995</v>
+        <v>6760301.5779999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3942,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6761401.6660000002</v>
+        <v>6769012.8720000004</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3950,7 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6846322.8810000001</v>
+        <v>6819564.6390000004</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3958,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6782777.4519999996</v>
+        <v>6832990.4349999996</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3966,7 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6976540.5580000002</v>
+        <v>6729688.6840000004</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3974,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>6967287.1109999996</v>
+        <v>6703453.4270000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3982,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6778581.8020000001</v>
+        <v>6643674.9060000004</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3990,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6827922.625</v>
+        <v>6897703.659</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3998,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6813307.3399999999</v>
+        <v>6815845.4060000004</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +4006,7 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7003435.2400000002</v>
+        <v>6748202.2280000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +4014,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>6800721.5829999996</v>
+        <v>6729638.5789999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +4022,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6925920.6689999998</v>
+        <v>6804433.4460000005</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +4030,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6937703.5599999996</v>
+        <v>6783560.3679999998</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +4038,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>6838358.6890000002</v>
+        <v>6891088.3219999997</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +4046,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6918666.6780000003</v>
+        <v>5202727.0369999995</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +4054,407 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6902544.4400000004</v>
+        <v>6229509.551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>6656440.4179999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>6685179.0729999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>6844215.6009999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>6832515.4409999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>6774495.9230000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>6745080.7599999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>6712171.835</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>6782956.6679999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>6693041.1689999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>6748673.3760000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>6648047.4069999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>6859510.9910000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>5763955.9129999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>5400408.4519999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>6283685.1009999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>6606152.7149999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>6806185.2199999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>6852533.1560000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>6821171.8689999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>6739722.8629999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>6778245.8940000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>6654625.8490000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>6647630.0559999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>6633714.79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>6814403.6950000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>6821555.0080000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>6736668.9019999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>6760514.659</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>6752579.4079999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>6743592.5460000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>6821340.2120000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>6928293.3109999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>6788301.7070000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>6676234.7740000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>6685374.2410000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>6664065.9129999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>6092497.1890000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>5988194.7580000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>6040063.3159999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>6763090.2300000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>6614929.5319999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>6766666.341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>6855727.6519999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>6684783.7709999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>6781883.0599999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>6535710.2939999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>6784767.3810000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>6623281.7460000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99">
+        <v>6639928.0460000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100">
+        <v>6861995.9100000001</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>7240212.8700000001</v>
+        <v>5826101.2029999997</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3714,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7221369.9280000003</v>
+        <v>6770340.625</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3722,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7280058.5329999998</v>
+        <v>6863338.6950000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3730,7 +4508,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7306551.2359999996</v>
+        <v>6822207.3530000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3738,7 +4516,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7286755.9689999996</v>
+        <v>6553346.2340000002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3746,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7268111.4560000002</v>
+        <v>6532685.2470000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3754,7 +4532,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7319724.4019999998</v>
+        <v>7151940.3449999997</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,7 +4540,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7394809.7570000002</v>
+        <v>7015257.2640000004</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3770,7 +4548,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7402239.7779999999</v>
+        <v>6940680.1189999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3778,7 +4556,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7276898.0559999999</v>
+        <v>7155536.6540000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,7 +4564,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7347201.4029999999</v>
+        <v>7135713.0920000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3794,7 +4572,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7289108.3870000001</v>
+        <v>7060835.1069999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3802,7 +4580,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7305271.267</v>
+        <v>6387694.2580000004</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3810,7 +4588,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7283068.4670000002</v>
+        <v>7151227.7570000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3818,7 +4596,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7360001.6490000002</v>
+        <v>7140940.2989999996</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3826,7 +4604,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7322456.9479999999</v>
+        <v>7171577.9680000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +4612,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7313055.443</v>
+        <v>6995419.2379999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +4620,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7378118.0539999995</v>
+        <v>7108712.6809999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3850,7 +4628,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7386106.9670000002</v>
+        <v>7025913.4040000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3858,7 +4636,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7257792.023</v>
+        <v>7223464.8090000004</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,7 +4644,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>5855165.1639999999</v>
+        <v>6398955.4570000004</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,7 +4652,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6164712.6440000003</v>
+        <v>6851507.7750000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3882,7 +4660,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>7277964.9699999997</v>
+        <v>7127715.4029999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3890,7 +4668,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7313634.0470000003</v>
+        <v>7168127.301</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3898,7 +4676,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>7343161.9539999999</v>
+        <v>7231510.9689999996</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +4684,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>7324219.3490000004</v>
+        <v>6490041.9919999996</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +4692,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6034380.3660000004</v>
+        <v>6786489.5089999996</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +4700,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6641826.9160000002</v>
+        <v>7129039.0120000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +4708,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>7164064.7869999995</v>
+        <v>7062908.0099999998</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +4716,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7248043.1189999999</v>
+        <v>7102681.0599999996</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +4724,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>7342190.9579999996</v>
+        <v>7155618.7230000002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +4732,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7235329.176</v>
+        <v>7161055.4000000004</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +4740,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7253387.3870000001</v>
+        <v>7097822.4809999997</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,7 +4748,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7403090.5410000002</v>
+        <v>6940269.7479999997</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +4756,7 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7385979.1179999998</v>
+        <v>6833421.0080000004</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3986,7 +4764,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7274482.915</v>
+        <v>6737051.7790000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +4772,7 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7328812.8969999999</v>
+        <v>7214096.7740000002</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,7 +4780,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7317793.4040000001</v>
+        <v>7166316.4330000002</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -4010,7 +4788,7 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7330093.0010000002</v>
+        <v>7154148.5429999996</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -4018,7 +4796,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7058416.3660000004</v>
+        <v>7101875.7060000002</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,7 +4804,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7288708.4009999996</v>
+        <v>6456127.1710000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4034,7 +4812,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7151899.9939999999</v>
+        <v>7074647.625</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4042,7 +4820,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7430922.2410000004</v>
+        <v>7106993.2240000004</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4828,7 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7369047.3760000002</v>
+        <v>7184932.1370000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,7 +4836,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7261667.2709999997</v>
+        <v>7221768.3849999998</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4066,7 +4844,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6250891.9720000001</v>
+        <v>7089316.4879999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,7 +4852,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7000760.0659999996</v>
+        <v>6674919.6509999996</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4082,7 +4860,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7361706.8590000002</v>
+        <v>6874631.398</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -4090,7 +4868,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7267799.1960000005</v>
+        <v>7119831.443</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4098,7 +4876,7 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7400191.5209999997</v>
+        <v>7088296.6380000003</v>
       </c>
     </row>
   </sheetData>
@@ -4109,19 +4887,441 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>7262458.9850000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7028776.2379999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6157115.3949999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6517188.6189999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6935736.7209999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6412010.0899999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6387084.5580000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6553427.6050000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6540114.5630000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6804148.6519999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5246285.5690000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5749435.2470000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6340861.6359999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6861154.5860000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6883406.7209999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7080772.7740000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6966536.0939999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6170025.7249999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5851727.9759999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5597424.9589999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>5932766.8650000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>6083257.0499999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>6371856.5190000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>7132764.3839999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>6440410.9330000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>6098206.4050000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>5695503.1909999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>6676267.3619999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>5877572.9280000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>5998304.4009999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>6424080.3039999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>5273422.4560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>6317640.5920000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>6689549.915</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>6943945.6399999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>6738459.449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>6555959.1500000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>6737773.2800000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>6654618.807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>6771464.8279999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>6296557.1359999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>7000313.3909999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>6387826.0080000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>6134151.7429999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>5458365.7410000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>6246616.5880000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>5432047.034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>5878033.8669999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>6018899.6909999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>6225523.6160000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D51"/>
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4134,705 +5334,863 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>403459.196</v>
+        <v>373203.34299999999</v>
       </c>
       <c r="B2">
-        <v>4610587.7970000003</v>
+        <v>4284492.8150000004</v>
       </c>
       <c r="C2">
-        <v>6882622.8260000004</v>
+        <v>6574828.4919999996</v>
       </c>
       <c r="D2">
-        <v>7240212.8700000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5826101.2029999997</v>
+      </c>
+      <c r="E2">
+        <v>7262458.9850000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>386143.41100000002</v>
+        <v>377444.42200000002</v>
       </c>
       <c r="B3">
-        <v>4975039.1540000001</v>
+        <v>4265868.8150000004</v>
       </c>
       <c r="C3">
-        <v>6826251.7989999996</v>
+        <v>6579724.1969999997</v>
       </c>
       <c r="D3">
-        <v>7221369.9280000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6770340.625</v>
+      </c>
+      <c r="E3">
+        <v>7028776.2379999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>391051.05200000003</v>
+        <v>374025.47600000002</v>
       </c>
       <c r="B4">
-        <v>5004768.9289999995</v>
+        <v>4239683.4970000004</v>
       </c>
       <c r="C4">
-        <v>6883880.6900000004</v>
+        <v>6718278.8480000002</v>
       </c>
       <c r="D4">
-        <v>7280058.5329999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6863338.6950000003</v>
+      </c>
+      <c r="E4">
+        <v>6157115.3949999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>414991.33100000001</v>
+        <v>438136.39</v>
       </c>
       <c r="B5">
-        <v>5080235.2039999999</v>
+        <v>4222349.9879999999</v>
       </c>
       <c r="C5">
-        <v>6066850.0520000001</v>
+        <v>6637470.3940000003</v>
       </c>
       <c r="D5">
-        <v>7306551.2359999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6822207.3530000001</v>
+      </c>
+      <c r="E5">
+        <v>6517188.6189999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>387587.59499999997</v>
+        <v>442184.09499999997</v>
       </c>
       <c r="B6">
-        <v>5085061.7790000001</v>
+        <v>4005141.6570000001</v>
       </c>
       <c r="C6">
-        <v>6139670.8300000001</v>
+        <v>6719385.2319999998</v>
       </c>
       <c r="D6">
-        <v>7286755.9689999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6553346.2340000002</v>
+      </c>
+      <c r="E6">
+        <v>6935736.7209999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>385702.71799999999</v>
+        <v>442390.34100000001</v>
       </c>
       <c r="B7">
-        <v>5129881.1619999995</v>
+        <v>4187539.9180000001</v>
       </c>
       <c r="C7">
-        <v>5850895.2659999998</v>
+        <v>6721675.2520000003</v>
       </c>
       <c r="D7">
-        <v>7268111.4560000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6532685.2470000004</v>
+      </c>
+      <c r="E7">
+        <v>6412010.0899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>403251.96600000001</v>
+        <v>438816.22</v>
       </c>
       <c r="B8">
-        <v>5181750.9349999996</v>
+        <v>4231087.8600000003</v>
       </c>
       <c r="C8">
-        <v>5981667.8880000003</v>
+        <v>6787526.0140000004</v>
       </c>
       <c r="D8">
-        <v>7319724.4019999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7151940.3449999997</v>
+      </c>
+      <c r="E8">
+        <v>6387084.5580000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>260167.095</v>
+        <v>460932.42700000003</v>
       </c>
       <c r="B9">
-        <v>5142823.3099999996</v>
+        <v>3946052.3870000001</v>
       </c>
       <c r="C9">
-        <v>6870892.8320000004</v>
+        <v>6678557.1840000004</v>
       </c>
       <c r="D9">
-        <v>7394809.7570000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7015257.2640000004</v>
+      </c>
+      <c r="E9">
+        <v>6553427.6050000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>403108.28200000001</v>
+        <v>471511.44199999998</v>
       </c>
       <c r="B10">
-        <v>5055909.1770000001</v>
+        <v>4290765.858</v>
       </c>
       <c r="C10">
-        <v>6868434.2929999996</v>
+        <v>6882632.9939999999</v>
       </c>
       <c r="D10">
-        <v>7402239.7779999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6940680.1189999999</v>
+      </c>
+      <c r="E10">
+        <v>6540114.5630000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>372942.52600000001</v>
+        <v>434441.45699999999</v>
       </c>
       <c r="B11">
-        <v>5094991.608</v>
+        <v>4252997.4050000003</v>
       </c>
       <c r="C11">
-        <v>6960263.9699999997</v>
+        <v>6796464.693</v>
       </c>
       <c r="D11">
-        <v>7276898.0559999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7155536.6540000001</v>
+      </c>
+      <c r="E11">
+        <v>6804148.6519999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>386116.09600000002</v>
+        <v>366311.71600000001</v>
       </c>
       <c r="B12">
-        <v>5092776.4110000003</v>
+        <v>4339534.273</v>
       </c>
       <c r="C12">
-        <v>6978081.3689999999</v>
+        <v>6668057.5310000004</v>
       </c>
       <c r="D12">
-        <v>7347201.4029999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7135713.0920000002</v>
+      </c>
+      <c r="E12">
+        <v>5246285.5690000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>403421.82</v>
+        <v>438451.837</v>
       </c>
       <c r="B13">
-        <v>5030443.523</v>
+        <v>4291380.8770000003</v>
       </c>
       <c r="C13">
-        <v>6968640.3899999997</v>
+        <v>6641581.2359999996</v>
       </c>
       <c r="D13">
-        <v>7289108.3870000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7060835.1069999998</v>
+      </c>
+      <c r="E13">
+        <v>5749435.2470000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>399665.00099999999</v>
+        <v>479867.603</v>
       </c>
       <c r="B14">
-        <v>5202343.6900000004</v>
+        <v>4281181.6619999995</v>
       </c>
       <c r="C14">
-        <v>6902051.0159999998</v>
+        <v>6789039.6500000004</v>
       </c>
       <c r="D14">
-        <v>7305271.267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6387694.2580000004</v>
+      </c>
+      <c r="E14">
+        <v>6340861.6359999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>390328.20600000001</v>
+        <v>433623.47399999999</v>
       </c>
       <c r="B15">
-        <v>5056755.7050000001</v>
+        <v>4235018.8830000004</v>
       </c>
       <c r="C15">
-        <v>6928768.96</v>
+        <v>6815968.7910000002</v>
       </c>
       <c r="D15">
-        <v>7283068.4670000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7151227.7570000002</v>
+      </c>
+      <c r="E15">
+        <v>6861154.5860000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>387284.77500000002</v>
+        <v>409650.26400000002</v>
       </c>
       <c r="B16">
-        <v>4880425.5190000003</v>
+        <v>4241051.216</v>
       </c>
       <c r="C16">
-        <v>6888341.1919999998</v>
+        <v>6750945.1399999997</v>
       </c>
       <c r="D16">
-        <v>7360001.6490000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7140940.2989999996</v>
+      </c>
+      <c r="E16">
+        <v>6883406.7209999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>410407.24200000003</v>
+        <v>383396.26</v>
       </c>
       <c r="B17">
-        <v>5147286.7960000001</v>
+        <v>4249358.8729999997</v>
       </c>
       <c r="C17">
-        <v>6881863.9970000004</v>
+        <v>6773320.4380000001</v>
       </c>
       <c r="D17">
-        <v>7322456.9479999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7171577.9680000003</v>
+      </c>
+      <c r="E17">
+        <v>7080772.7740000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>411265.951</v>
+        <v>393287.78200000001</v>
       </c>
       <c r="B18">
-        <v>5127667.2580000004</v>
+        <v>4300449.0559999999</v>
       </c>
       <c r="C18">
-        <v>6885256.6840000004</v>
+        <v>6836207.5109999999</v>
       </c>
       <c r="D18">
-        <v>7313055.443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6995419.2379999999</v>
+      </c>
+      <c r="E18">
+        <v>6966536.0939999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>380131.864</v>
+        <v>414911.48200000002</v>
       </c>
       <c r="B19">
-        <v>5136723.49</v>
+        <v>4118219.8190000001</v>
       </c>
       <c r="C19">
-        <v>6885077.2350000003</v>
+        <v>6717376.1179999998</v>
       </c>
       <c r="D19">
-        <v>7378118.0539999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7108712.6809999999</v>
+      </c>
+      <c r="E19">
+        <v>6170025.7249999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>398503.815</v>
+        <v>388847.12400000001</v>
       </c>
       <c r="B20">
-        <v>5068759.97</v>
+        <v>3789736.1340000001</v>
       </c>
       <c r="C20">
-        <v>6833074.3949999996</v>
+        <v>6781721.6320000002</v>
       </c>
       <c r="D20">
-        <v>7386106.9670000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7025913.4040000001</v>
+      </c>
+      <c r="E20">
+        <v>5851727.9759999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>410512.50300000003</v>
+        <v>415421.67</v>
       </c>
       <c r="B21">
-        <v>5086331.676</v>
+        <v>4172425.5830000001</v>
       </c>
       <c r="C21">
-        <v>6908969.7089999998</v>
+        <v>6758113.0650000004</v>
       </c>
       <c r="D21">
-        <v>7257792.023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7223464.8090000004</v>
+      </c>
+      <c r="E21">
+        <v>5597424.9589999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>394119.951</v>
+        <v>412131.66200000001</v>
       </c>
       <c r="B22">
-        <v>5087265.0209999997</v>
+        <v>4260975.03</v>
       </c>
       <c r="C22">
-        <v>6932040.7379999999</v>
+        <v>6835551.8370000003</v>
       </c>
       <c r="D22">
-        <v>5855165.1639999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6398955.4570000004</v>
+      </c>
+      <c r="E22">
+        <v>5932766.8650000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>372231.65700000001</v>
+        <v>415956.01500000001</v>
       </c>
       <c r="B23">
-        <v>5085700.2139999997</v>
+        <v>4236047.0269999998</v>
       </c>
       <c r="C23">
-        <v>6956895.1940000001</v>
+        <v>6723766.6449999996</v>
       </c>
       <c r="D23">
-        <v>6164712.6440000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6851507.7750000004</v>
+      </c>
+      <c r="E23">
+        <v>6083257.0499999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>295129.83299999998</v>
+        <v>411291.28100000002</v>
       </c>
       <c r="B24">
-        <v>5129693.0010000002</v>
+        <v>4247026.4989999998</v>
       </c>
       <c r="C24">
-        <v>6950687.9500000002</v>
+        <v>6819220.8439999996</v>
       </c>
       <c r="D24">
-        <v>7277964.9699999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7127715.4029999999</v>
+      </c>
+      <c r="E24">
+        <v>6371856.5190000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>331959.929</v>
+        <v>435775.23800000001</v>
       </c>
       <c r="B25">
-        <v>5092997.1330000004</v>
+        <v>4268860.5439999998</v>
       </c>
       <c r="C25">
-        <v>6922534.3140000002</v>
+        <v>6014697.2280000001</v>
       </c>
       <c r="D25">
-        <v>7313634.0470000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7168127.301</v>
+      </c>
+      <c r="E25">
+        <v>7132764.3839999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>333856.40000000002</v>
+        <v>452381.49099999998</v>
       </c>
       <c r="B26">
-        <v>5146713.9879999999</v>
+        <v>4233759.2019999996</v>
       </c>
       <c r="C26">
-        <v>6923185.4280000003</v>
+        <v>5664524.6749999998</v>
       </c>
       <c r="D26">
-        <v>7343161.9539999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7231510.9689999996</v>
+      </c>
+      <c r="E26">
+        <v>6440410.9330000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>335730.77600000001</v>
+        <v>425381.59600000002</v>
       </c>
       <c r="B27">
-        <v>5155951.5889999997</v>
+        <v>4251264.9970000004</v>
       </c>
       <c r="C27">
-        <v>6751180.551</v>
+        <v>5678790.4469999997</v>
       </c>
       <c r="D27">
-        <v>7324219.3490000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6490041.9919999996</v>
+      </c>
+      <c r="E27">
+        <v>6098206.4050000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>359195.29499999998</v>
+        <v>443308.76199999999</v>
       </c>
       <c r="B28">
-        <v>5110481.7230000002</v>
+        <v>4221658.43</v>
       </c>
       <c r="C28">
-        <v>5248027.1770000001</v>
+        <v>6530805.1129999999</v>
       </c>
       <c r="D28">
-        <v>6034380.3660000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6786489.5089999996</v>
+      </c>
+      <c r="E28">
+        <v>5695503.1909999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>358976.071</v>
+        <v>492776.29700000002</v>
       </c>
       <c r="B29">
-        <v>4930210.057</v>
+        <v>4204783.4859999996</v>
       </c>
       <c r="C29">
-        <v>6220270.0710000005</v>
+        <v>6588265.3080000002</v>
       </c>
       <c r="D29">
-        <v>6641826.9160000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7129039.0120000001</v>
+      </c>
+      <c r="E29">
+        <v>6676267.3619999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>360531.75799999997</v>
+        <v>501212.451</v>
       </c>
       <c r="B30">
-        <v>5033928.8830000004</v>
+        <v>3997705.1370000001</v>
       </c>
       <c r="C30">
-        <v>6952542.0410000002</v>
+        <v>6965420.9979999997</v>
       </c>
       <c r="D30">
-        <v>7164064.7869999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7062908.0099999998</v>
+      </c>
+      <c r="E30">
+        <v>5877572.9280000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>361335.23100000003</v>
+        <v>486738.28899999999</v>
       </c>
       <c r="B31">
-        <v>5111669.4630000005</v>
+        <v>4245276.4040000001</v>
       </c>
       <c r="C31">
-        <v>6917086.5920000002</v>
+        <v>6765932.2000000002</v>
       </c>
       <c r="D31">
-        <v>7248043.1189999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7102681.0599999996</v>
+      </c>
+      <c r="E31">
+        <v>5998304.4009999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>371411.86800000002</v>
+        <v>470486.09899999999</v>
       </c>
       <c r="B32">
-        <v>5152104.5410000002</v>
+        <v>4202080.5729999999</v>
       </c>
       <c r="C32">
-        <v>6900702.568</v>
+        <v>6652757.2130000005</v>
       </c>
       <c r="D32">
-        <v>7342190.9579999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7155618.7230000002</v>
+      </c>
+      <c r="E32">
+        <v>6424080.3039999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>324902.09899999999</v>
+        <v>409277.38900000002</v>
       </c>
       <c r="B33">
-        <v>4987697.966</v>
+        <v>4314411.1670000004</v>
       </c>
       <c r="C33">
-        <v>6843714.8710000003</v>
+        <v>6760267.6150000002</v>
       </c>
       <c r="D33">
-        <v>7235329.176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7161055.4000000004</v>
+      </c>
+      <c r="E33">
+        <v>5273422.4560000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>389808.136</v>
+        <v>511314.97200000001</v>
       </c>
       <c r="B34">
-        <v>3543611.4410000001</v>
+        <v>4460442.6909999996</v>
       </c>
       <c r="C34">
-        <v>5801966.7819999997</v>
+        <v>6699864.4450000003</v>
       </c>
       <c r="D34">
-        <v>7253387.3870000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7097822.4809999997</v>
+      </c>
+      <c r="E34">
+        <v>6317640.5920000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>362208.89399999997</v>
+        <v>500068.20899999997</v>
       </c>
       <c r="B35">
-        <v>4909632.8459999999</v>
+        <v>4265597.3039999995</v>
       </c>
       <c r="C35">
-        <v>6377185.5460000001</v>
+        <v>6668058.9000000004</v>
       </c>
       <c r="D35">
-        <v>7403090.5410000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6940269.7479999997</v>
+      </c>
+      <c r="E35">
+        <v>6689549.915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>360175.42200000002</v>
+        <v>492808.19400000002</v>
       </c>
       <c r="B36">
-        <v>5105444.8540000003</v>
+        <v>4325296.7130000005</v>
       </c>
       <c r="C36">
-        <v>6357635.4289999995</v>
+        <v>6760301.5779999997</v>
       </c>
       <c r="D36">
-        <v>7385979.1179999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6833421.0080000004</v>
+      </c>
+      <c r="E36">
+        <v>6943945.6399999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>340617.62900000002</v>
+        <v>458321.375</v>
       </c>
       <c r="B37">
-        <v>5138001.1409999998</v>
+        <v>3846071.0260000001</v>
       </c>
       <c r="C37">
-        <v>6761401.6660000002</v>
+        <v>6769012.8720000004</v>
       </c>
       <c r="D37">
-        <v>7274482.915</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6737051.7790000001</v>
+      </c>
+      <c r="E37">
+        <v>6738459.449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>300266.34899999999</v>
+        <v>496474.51199999999</v>
       </c>
       <c r="B38">
-        <v>5103124.0590000004</v>
+        <v>4446410.3660000004</v>
       </c>
       <c r="C38">
-        <v>6846322.8810000001</v>
+        <v>6819564.6390000004</v>
       </c>
       <c r="D38">
-        <v>7328812.8969999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7214096.7740000002</v>
+      </c>
+      <c r="E38">
+        <v>6555959.1500000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>251706.12599999999</v>
+        <v>502106.217</v>
       </c>
       <c r="B39">
-        <v>5022801.3569999998</v>
+        <v>4618464.1770000001</v>
       </c>
       <c r="C39">
-        <v>6782777.4519999996</v>
+        <v>6832990.4349999996</v>
       </c>
       <c r="D39">
-        <v>7317793.4040000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7166316.4330000002</v>
+      </c>
+      <c r="E39">
+        <v>6737773.2800000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>286719.35700000002</v>
+        <v>495598.49599999998</v>
       </c>
       <c r="B40">
-        <v>5098825.1229999997</v>
+        <v>4481810.4239999996</v>
       </c>
       <c r="C40">
-        <v>6976540.5580000002</v>
+        <v>6729688.6840000004</v>
       </c>
       <c r="D40">
-        <v>7330093.0010000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7154148.5429999996</v>
+      </c>
+      <c r="E40">
+        <v>6654618.807</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>288082.70299999998</v>
+        <v>499520.25799999997</v>
       </c>
       <c r="B41">
-        <v>5106320.9330000002</v>
+        <v>4782709.9220000003</v>
       </c>
       <c r="C41">
-        <v>6967287.1109999996</v>
+        <v>6703453.4270000001</v>
       </c>
       <c r="D41">
-        <v>7058416.3660000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7101875.7060000002</v>
+      </c>
+      <c r="E41">
+        <v>6771464.8279999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>380440.02799999999</v>
+        <v>480741.74200000003</v>
       </c>
       <c r="B42">
-        <v>4947194.9309999999</v>
+        <v>4931538.4800000004</v>
       </c>
       <c r="C42">
-        <v>6778581.8020000001</v>
+        <v>6643674.9060000004</v>
       </c>
       <c r="D42">
-        <v>7288708.4009999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6456127.1710000001</v>
+      </c>
+      <c r="E42">
+        <v>6296557.1359999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>376746.15600000002</v>
+        <v>495820.36</v>
       </c>
       <c r="B43">
-        <v>5165934.9579999996</v>
+        <v>4902833.7889999999</v>
       </c>
       <c r="C43">
-        <v>6827922.625</v>
+        <v>6897703.659</v>
       </c>
       <c r="D43">
-        <v>7151899.9939999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7074647.625</v>
+      </c>
+      <c r="E43">
+        <v>7000313.3909999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>391751.636</v>
+        <v>499931.598</v>
       </c>
       <c r="B44">
-        <v>5039100.5750000002</v>
+        <v>4511960.1550000003</v>
       </c>
       <c r="C44">
-        <v>6813307.3399999999</v>
+        <v>6815845.4060000004</v>
       </c>
       <c r="D44">
-        <v>7430922.2410000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7106993.2240000004</v>
+      </c>
+      <c r="E44">
+        <v>6387826.0080000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>397724.20400000003</v>
+        <v>488200.27299999999</v>
       </c>
       <c r="B45">
-        <v>5002014.9620000003</v>
+        <v>4896885.1109999996</v>
       </c>
       <c r="C45">
-        <v>7003435.2400000002</v>
+        <v>6748202.2280000001</v>
       </c>
       <c r="D45">
-        <v>7369047.3760000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7184932.1370000001</v>
+      </c>
+      <c r="E45">
+        <v>6134151.7429999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>393538.66700000002</v>
+        <v>509662.353</v>
       </c>
       <c r="B46">
-        <v>5133142.8269999996</v>
+        <v>4881730.1490000002</v>
       </c>
       <c r="C46">
-        <v>6800721.5829999996</v>
+        <v>6729638.5789999999</v>
       </c>
       <c r="D46">
-        <v>7261667.2709999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7221768.3849999998</v>
+      </c>
+      <c r="E46">
+        <v>5458365.7410000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>382112.38</v>
+        <v>468465.98700000002</v>
       </c>
       <c r="B47">
-        <v>5091123.1390000004</v>
+        <v>4900660.5820000004</v>
       </c>
       <c r="C47">
-        <v>6925920.6689999998</v>
+        <v>6804433.4460000005</v>
       </c>
       <c r="D47">
-        <v>6250891.9720000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7089316.4879999999</v>
+      </c>
+      <c r="E47">
+        <v>6246616.5880000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>377399.01500000001</v>
+        <v>455077.84100000001</v>
       </c>
       <c r="B48">
-        <v>5091559.665</v>
+        <v>4860670.7709999997</v>
       </c>
       <c r="C48">
-        <v>6937703.5599999996</v>
+        <v>6783560.3679999998</v>
       </c>
       <c r="D48">
-        <v>7000760.0659999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6674919.6509999996</v>
+      </c>
+      <c r="E48">
+        <v>5432047.034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>373550.48700000002</v>
+        <v>491576.821</v>
       </c>
       <c r="B49">
-        <v>5135323.7070000004</v>
+        <v>4977791.0159999998</v>
       </c>
       <c r="C49">
-        <v>6838358.6890000002</v>
+        <v>6891088.3219999997</v>
       </c>
       <c r="D49">
-        <v>7361706.8590000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6874631.398</v>
+      </c>
+      <c r="E49">
+        <v>5878033.8669999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>375381.859</v>
+        <v>474357.76000000001</v>
       </c>
       <c r="B50">
-        <v>5096261.102</v>
+        <v>4868579.4850000003</v>
       </c>
       <c r="C50">
-        <v>6918666.6780000003</v>
+        <v>5202727.0369999995</v>
       </c>
       <c r="D50">
-        <v>7267799.1960000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7119831.443</v>
+      </c>
+      <c r="E50">
+        <v>6018899.6909999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>396725.76199999999</v>
+        <v>473237.9</v>
       </c>
       <c r="B51">
-        <v>4675815.3310000002</v>
+        <v>4336170.4910000004</v>
       </c>
       <c r="C51">
-        <v>6902544.4400000004</v>
+        <v>6229509.551</v>
       </c>
       <c r="D51">
-        <v>7400191.5209999997</v>
+        <v>7088296.6380000003</v>
+      </c>
+      <c r="E51">
+        <v>6225523.6160000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>6656440.4179999996</v>
       </c>
     </row>
   </sheetData>

--- a/bean-transform-tool/doc/基准测试报告.xlsx
+++ b/bean-transform-tool/doc/基准测试报告.xlsx
@@ -13,13 +13,25 @@
     <sheet name="manual" sheetId="4" r:id="rId4"/>
     <sheet name="selmaMapper" sheetId="6" r:id="rId5"/>
     <sheet name="汇总" sheetId="5" r:id="rId6"/>
+    <sheet name="score" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="beanHandler" localSheetId="6">score!$C$1:$C$50</definedName>
+    <definedName name="beanHandler" localSheetId="5">汇总!$D$2:$D$51</definedName>
     <definedName name="beanHandler_1" localSheetId="2">beanhandler!$A$1:$B$100</definedName>
+    <definedName name="manual" localSheetId="6">score!$D$1:$D$50</definedName>
+    <definedName name="manual" localSheetId="5">汇总!$E$2:$E$51</definedName>
     <definedName name="manual_1" localSheetId="3">manual!$A$1:$B$50</definedName>
+    <definedName name="mapStruct" localSheetId="6">score!$B$1:$B$50</definedName>
+    <definedName name="mapStruct" localSheetId="5">汇总!$C$2:$C$51</definedName>
     <definedName name="mapStruct_1" localSheetId="1">mapstruct!$A$1:$B$50</definedName>
+    <definedName name="SelmaMapper" localSheetId="6">score!$E$1:$E$50</definedName>
     <definedName name="SelmaMapper" localSheetId="4">selmaMapper!$A$1:$B$50</definedName>
-    <definedName name="spring_1" localSheetId="0">spring!$A$1:$B$50</definedName>
+    <definedName name="SelmaMapper" localSheetId="5">汇总!$F$2:$F$51</definedName>
+    <definedName name="spring" localSheetId="6">score!$A$1:$A$50</definedName>
+    <definedName name="spring" localSheetId="0">spring!$A$1:$A$50</definedName>
+    <definedName name="spring" localSheetId="5">汇总!$A$2:$A$51</definedName>
+    <definedName name="spring_1" localSheetId="5">汇总!$B$2:$B$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +52,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="manual" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" name="beanHandler1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\beanHandler.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="beanHandler11" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\beanHandler.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="manual" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\manual.txt" tab="0" delimiter=":">
       <textFields count="2">
         <textField/>
@@ -48,7 +76,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="mapStruct" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" name="manual1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\manual.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="manual11" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\manual.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="mapStruct" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\mapStruct.txt" tab="0" delimiter=":">
       <textFields count="2">
         <textField/>
@@ -56,7 +100,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="SelmaMapper" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" name="mapStruct1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\mapStruct.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="mapStruct11" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\mapStruct.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="SelmaMapper" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\SelmaMapper.txt" tab="0" delimiter=":">
       <textFields count="2">
         <textField/>
@@ -64,10 +124,49 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="spring" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" name="SelmaMapper1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\SelmaMapper.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="SelmaMapper11" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\SelmaMapper.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" name="spring" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\spring.txt" tab="0" delimiter=":">
       <textFields count="2">
+        <textField type="skip"/>
         <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" name="spring1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\spring.txt" tab="0" delimiter="：">
+      <textFields>
+        <textField type="skip"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" name="spring2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\spring.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="16" name="spring21" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\github-projects\opensource-bean-transform-tool\bean-transform-tool\doc\spring.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField type="skip"/>
         <textField/>
       </textFields>
     </textPr>
@@ -76,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
   <si>
     <t>Iteration   1</t>
   </si>
@@ -396,12 +495,44 @@
   <si>
     <t>Iteration 100</t>
   </si>
+  <si>
+    <t>manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beanTransform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selmaMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapStruct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99%置信上界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99%置信下界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +546,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,8 +574,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,7 +686,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>汇总!$A$1</c:f>
+              <c:f>汇总!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -584,159 +722,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>汇总!$A$2:$A$51</c:f>
+              <c:f>汇总!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>373203.34299999999</c:v>
+                  <c:v>436548.86300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>377444.42200000002</c:v>
+                  <c:v>467030.95500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>374025.47600000002</c:v>
+                  <c:v>431795.342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438136.39</c:v>
+                  <c:v>461128.38799999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>442184.09499999997</c:v>
+                  <c:v>460432.30499999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>442390.34100000001</c:v>
+                  <c:v>442666.25099999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>438816.22</c:v>
+                  <c:v>389049.06800000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>460932.42700000003</c:v>
+                  <c:v>443440.24800000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>471511.44199999998</c:v>
+                  <c:v>467529.88900000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>434441.45699999999</c:v>
+                  <c:v>460192.739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>366311.71600000001</c:v>
+                  <c:v>470610.022</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>438451.837</c:v>
+                  <c:v>476270.15299999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>479867.603</c:v>
+                  <c:v>461276.88099999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>433623.47399999999</c:v>
+                  <c:v>449654.19799999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>409650.26400000002</c:v>
+                  <c:v>412403.16700000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>383396.26</c:v>
+                  <c:v>427218.29700000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>393287.78200000001</c:v>
+                  <c:v>444238.21299999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>414911.48200000002</c:v>
+                  <c:v>434308.598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>388847.12400000001</c:v>
+                  <c:v>419447.15299999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>415421.67</c:v>
+                  <c:v>409029.48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>412131.66200000001</c:v>
+                  <c:v>466800.35499999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>415956.01500000001</c:v>
+                  <c:v>433179.29700000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>411291.28100000002</c:v>
+                  <c:v>441435.45400000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>435775.23800000001</c:v>
+                  <c:v>479705.51899999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>452381.49099999998</c:v>
+                  <c:v>472737.98800000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>425381.59600000002</c:v>
+                  <c:v>453080.76799999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>443308.76199999999</c:v>
+                  <c:v>416476.23499999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>492776.29700000002</c:v>
+                  <c:v>430755.234</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>501212.451</c:v>
+                  <c:v>467783.54399999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>486738.28899999999</c:v>
+                  <c:v>443983.56300000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>470486.09899999999</c:v>
+                  <c:v>444952.34700000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>409277.38900000002</c:v>
+                  <c:v>459102.98200000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>511314.97200000001</c:v>
+                  <c:v>445048.56800000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>500068.20899999997</c:v>
+                  <c:v>464061.17300000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>492808.19400000002</c:v>
+                  <c:v>441894.26500000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>458321.375</c:v>
+                  <c:v>466099.72200000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>496474.51199999999</c:v>
+                  <c:v>414093.13799999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>502106.217</c:v>
+                  <c:v>391975.38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>495598.49599999998</c:v>
+                  <c:v>406696.571</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>499520.25799999997</c:v>
+                  <c:v>423802.29100000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>480741.74200000003</c:v>
+                  <c:v>420571.66600000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>495820.36</c:v>
+                  <c:v>429968.94500000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>499931.598</c:v>
+                  <c:v>409047.29499999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>488200.27299999999</c:v>
+                  <c:v>436631.88099999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>509662.353</c:v>
+                  <c:v>426736.67</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>468465.98700000002</c:v>
+                  <c:v>433413.61700000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>455077.84100000001</c:v>
+                  <c:v>442397.04300000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>491576.821</c:v>
+                  <c:v>395123.80499999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>474357.76000000001</c:v>
+                  <c:v>435497.44699999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>473237.9</c:v>
+                  <c:v>448941.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,7 +891,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>汇总!$B$1</c:f>
+              <c:f>汇总!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -789,159 +927,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>汇总!$B$2:$B$51</c:f>
+              <c:f>汇总!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4284492.8150000004</c:v>
+                  <c:v>5338259.5980000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4265868.8150000004</c:v>
+                  <c:v>4915139.1500000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4239683.4970000004</c:v>
+                  <c:v>5336872.9639999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4222349.9879999999</c:v>
+                  <c:v>5382359.2800000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4005141.6570000001</c:v>
+                  <c:v>5346621.5559999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4187539.9180000001</c:v>
+                  <c:v>5404238.5480000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4231087.8600000003</c:v>
+                  <c:v>5392030.1600000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3946052.3870000001</c:v>
+                  <c:v>5382175.3629999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4290765.858</c:v>
+                  <c:v>5370684.9139999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4252997.4050000003</c:v>
+                  <c:v>5425527.0130000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4339534.273</c:v>
+                  <c:v>5108135.0130000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4291380.8770000003</c:v>
+                  <c:v>5208499.5109999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4281181.6619999995</c:v>
+                  <c:v>5365831.801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4235018.8830000004</c:v>
+                  <c:v>4921298.0269999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4241051.216</c:v>
+                  <c:v>5394765.9479999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4249358.8729999997</c:v>
+                  <c:v>5338904.3480000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4300449.0559999999</c:v>
+                  <c:v>4072041.844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4118219.8190000001</c:v>
+                  <c:v>4898675.5319999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3789736.1340000001</c:v>
+                  <c:v>5035757.4879999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4172425.5830000001</c:v>
+                  <c:v>4876756.4510000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4260975.03</c:v>
+                  <c:v>5276273.5379999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4236047.0269999998</c:v>
+                  <c:v>5235021.1059999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4247026.4989999998</c:v>
+                  <c:v>5331382.6619999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4268860.5439999998</c:v>
+                  <c:v>5402267.3389999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4233759.2019999996</c:v>
+                  <c:v>5018542.2580000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4251264.9970000004</c:v>
+                  <c:v>4951646.97</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4221658.43</c:v>
+                  <c:v>5370784.1780000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4204783.4859999996</c:v>
+                  <c:v>5371300.2220000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3997705.1370000001</c:v>
+                  <c:v>5397347.1320000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4245276.4040000001</c:v>
+                  <c:v>5386358.9869999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4202080.5729999999</c:v>
+                  <c:v>5382267.8700000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4314411.1670000004</c:v>
+                  <c:v>5323369.5039999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4460442.6909999996</c:v>
+                  <c:v>5342065.9570000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4265597.3039999995</c:v>
+                  <c:v>5369018.7019999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4325296.7130000005</c:v>
+                  <c:v>5320516.6009999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3846071.0260000001</c:v>
+                  <c:v>5358478.4610000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4446410.3660000004</c:v>
+                  <c:v>5328384.0939999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4618464.1770000001</c:v>
+                  <c:v>4955433.2640000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4481810.4239999996</c:v>
+                  <c:v>5359214.8720000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4782709.9220000003</c:v>
+                  <c:v>5368843.2470000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4931538.4800000004</c:v>
+                  <c:v>5413571.4670000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4902833.7889999999</c:v>
+                  <c:v>5411069.4069999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4511960.1550000003</c:v>
+                  <c:v>5223004.4819999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4896885.1109999996</c:v>
+                  <c:v>5372656.8990000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4881730.1490000002</c:v>
+                  <c:v>5284475.24</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4900660.5820000004</c:v>
+                  <c:v>5381766.3470000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4860670.7709999997</c:v>
+                  <c:v>5359449.2479999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4977791.0159999998</c:v>
+                  <c:v>5414883.5619999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4868579.4850000003</c:v>
+                  <c:v>5355065.057</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4336170.4910000004</c:v>
+                  <c:v>4925176.9730000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,7 +1096,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>汇总!$C$1</c:f>
+              <c:f>汇总!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -997,159 +1135,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>汇总!$C$2:$C$51</c:f>
+              <c:f>汇总!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>6574828.4919999996</c:v>
+                  <c:v>6135038.1809999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6579724.1969999997</c:v>
+                  <c:v>6399391.5669999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6718278.8480000002</c:v>
+                  <c:v>6563312.5039999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6637470.3940000003</c:v>
+                  <c:v>6398806.0159999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6719385.2319999998</c:v>
+                  <c:v>6267344.2819999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6721675.2520000003</c:v>
+                  <c:v>6937536.1160000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6787526.0140000004</c:v>
+                  <c:v>6988272.5789999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6678557.1840000004</c:v>
+                  <c:v>7039682.7860000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6882632.9939999999</c:v>
+                  <c:v>6881569.8059999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6796464.693</c:v>
+                  <c:v>7008791.4170000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6668057.5310000004</c:v>
+                  <c:v>6930505.7240000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6641581.2359999996</c:v>
+                  <c:v>6989297.9560000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6789039.6500000004</c:v>
+                  <c:v>7018642.8279999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6815968.7910000002</c:v>
+                  <c:v>7009791.449</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6750945.1399999997</c:v>
+                  <c:v>7032264.4979999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6773320.4380000001</c:v>
+                  <c:v>6509862.4699999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6836207.5109999999</c:v>
+                  <c:v>6174968.2570000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6717376.1179999998</c:v>
+                  <c:v>7007603.5429999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6781721.6320000002</c:v>
+                  <c:v>7032746.5580000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6758113.0650000004</c:v>
+                  <c:v>7010404.898</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6835551.8370000003</c:v>
+                  <c:v>7053888.2640000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6723766.6449999996</c:v>
+                  <c:v>7032424.7110000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6819220.8439999996</c:v>
+                  <c:v>7002572.3619999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6014697.2280000001</c:v>
+                  <c:v>7032326.1619999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5664524.6749999998</c:v>
+                  <c:v>7033666.1890000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5678790.4469999997</c:v>
+                  <c:v>6954086.8830000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6530805.1129999999</c:v>
+                  <c:v>6697183.1140000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6588265.3080000002</c:v>
+                  <c:v>6999155.943</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6965420.9979999997</c:v>
+                  <c:v>6558432.5070000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6765932.2000000002</c:v>
+                  <c:v>7005285.6529999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6652757.2130000005</c:v>
+                  <c:v>7016970.1040000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6760267.6150000002</c:v>
+                  <c:v>7041690.9910000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6699864.4450000003</c:v>
+                  <c:v>7014845.6890000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6668058.9000000004</c:v>
+                  <c:v>7017168.9479999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6760301.5779999997</c:v>
+                  <c:v>7011720.5659999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6769012.8720000004</c:v>
+                  <c:v>6967905.2460000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6819564.6390000004</c:v>
+                  <c:v>7030897.4639999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6832990.4349999996</c:v>
+                  <c:v>7012731.5690000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6729688.6840000004</c:v>
+                  <c:v>7104391.4289999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6703453.4270000001</c:v>
+                  <c:v>7040379.9230000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6643674.9060000004</c:v>
+                  <c:v>6260381.0250000004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6897703.659</c:v>
+                  <c:v>7075056.6550000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6815845.4060000004</c:v>
+                  <c:v>7044510.9929999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6748202.2280000001</c:v>
+                  <c:v>7089525.6600000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6729638.5789999999</c:v>
+                  <c:v>7029195.1339999996</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6804433.4460000005</c:v>
+                  <c:v>6978571.4199999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6783560.3679999998</c:v>
+                  <c:v>7028005.8830000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6891088.3219999997</c:v>
+                  <c:v>7065894.0439999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5202727.0369999995</c:v>
+                  <c:v>7029249.8049999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6229509.551</c:v>
+                  <c:v>7029205.7029999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1304,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>汇总!$D$1</c:f>
+              <c:f>汇总!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1206,159 +1344,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>汇总!$D$2:$D$51</c:f>
+              <c:f>汇总!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>5826101.2029999997</c:v>
+                  <c:v>7255300.699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6770340.625</c:v>
+                  <c:v>7269718.0659999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6863338.6950000003</c:v>
+                  <c:v>7181060.0499999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6822207.3530000001</c:v>
+                  <c:v>7217715.0789999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6553346.2340000002</c:v>
+                  <c:v>7252730.068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6532685.2470000004</c:v>
+                  <c:v>7269830.2220000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7151940.3449999997</c:v>
+                  <c:v>7101815.017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7015257.2640000004</c:v>
+                  <c:v>7130416.6239999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6940680.1189999999</c:v>
+                  <c:v>6729650.6320000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7155536.6540000001</c:v>
+                  <c:v>7187676.8810000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7135713.0920000002</c:v>
+                  <c:v>7197832.4610000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7060835.1069999998</c:v>
+                  <c:v>7191463.2709999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6387694.2580000004</c:v>
+                  <c:v>7227717.2029999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7151227.7570000002</c:v>
+                  <c:v>7273938.5080000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7140940.2989999996</c:v>
+                  <c:v>7253213.977</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7171577.9680000003</c:v>
+                  <c:v>7185732.8890000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6995419.2379999999</c:v>
+                  <c:v>7281681.2479999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7108712.6809999999</c:v>
+                  <c:v>7216068.5949999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7025913.4040000001</c:v>
+                  <c:v>7248912.5300000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7223464.8090000004</c:v>
+                  <c:v>7243388.9859999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6398955.4570000004</c:v>
+                  <c:v>6697692.3830000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6851507.7750000004</c:v>
+                  <c:v>7290311.9740000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7127715.4029999999</c:v>
+                  <c:v>7247934.4170000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7168127.301</c:v>
+                  <c:v>7292627.693</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7231510.9689999996</c:v>
+                  <c:v>7250260.7039999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6490041.9919999996</c:v>
+                  <c:v>7162672.0279999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6786489.5089999996</c:v>
+                  <c:v>7270227.9630000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7129039.0120000001</c:v>
+                  <c:v>7277355.159</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7062908.0099999998</c:v>
+                  <c:v>7269588.2019999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7102681.0599999996</c:v>
+                  <c:v>7312655.5920000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7155618.7230000002</c:v>
+                  <c:v>7310106.8260000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7161055.4000000004</c:v>
+                  <c:v>7308852.2580000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7097822.4809999997</c:v>
+                  <c:v>6591874.466</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6940269.7479999997</c:v>
+                  <c:v>7213903.2539999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6833421.0080000004</c:v>
+                  <c:v>7186894.4979999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6737051.7790000001</c:v>
+                  <c:v>7220008.4110000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7214096.7740000002</c:v>
+                  <c:v>6548813.585</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7166316.4330000002</c:v>
+                  <c:v>7099100.4950000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7154148.5429999996</c:v>
+                  <c:v>7237288.7340000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7101875.7060000002</c:v>
+                  <c:v>7269159.4570000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6456127.1710000001</c:v>
+                  <c:v>7258754.0889999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7074647.625</c:v>
+                  <c:v>7289953.5599999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7106993.2240000004</c:v>
+                  <c:v>7251855.3210000005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7184932.1370000001</c:v>
+                  <c:v>7263935.4780000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7221768.3849999998</c:v>
+                  <c:v>6719968.1739999996</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7089316.4879999999</c:v>
+                  <c:v>7211998.9179999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6674919.6509999996</c:v>
+                  <c:v>7244211.0930000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6874631.398</c:v>
+                  <c:v>7155597.324</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7119831.443</c:v>
+                  <c:v>6720007.3619999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7088296.6380000003</c:v>
+                  <c:v>6901965.0640000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1513,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>汇总!$E$1</c:f>
+              <c:f>汇总!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1417,159 +1555,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>汇总!$E$2:$E$51</c:f>
+              <c:f>汇总!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>7262458.9850000003</c:v>
+                  <c:v>7183969.6270000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7028776.2379999999</c:v>
+                  <c:v>7187582.4309999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6157115.3949999996</c:v>
+                  <c:v>7171598.8159999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6517188.6189999999</c:v>
+                  <c:v>7079594.4649999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6935736.7209999999</c:v>
+                  <c:v>7130952.2050000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6412010.0899999999</c:v>
+                  <c:v>7077172.324</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6387084.5580000002</c:v>
+                  <c:v>7142450.3229999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6553427.6050000004</c:v>
+                  <c:v>7111284.1380000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6540114.5630000001</c:v>
+                  <c:v>7145222.7359999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6804148.6519999998</c:v>
+                  <c:v>6344688.6299999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5246285.5690000001</c:v>
+                  <c:v>6656156.9929999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5749435.2470000004</c:v>
+                  <c:v>6792921.8380000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6340861.6359999999</c:v>
+                  <c:v>6848509.102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6861154.5860000001</c:v>
+                  <c:v>6796669.8940000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6883406.7209999999</c:v>
+                  <c:v>6865182.7240000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7080772.7740000002</c:v>
+                  <c:v>6819473.1330000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6966536.0939999996</c:v>
+                  <c:v>6849182.7359999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6170025.7249999996</c:v>
+                  <c:v>6841195.0690000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5851727.9759999998</c:v>
+                  <c:v>6867855.9040000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5597424.9589999998</c:v>
+                  <c:v>6862857.5939999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5932766.8650000002</c:v>
+                  <c:v>6849418.6469999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6083257.0499999998</c:v>
+                  <c:v>6487389.426</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6371856.5190000003</c:v>
+                  <c:v>6534337.4330000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7132764.3839999996</c:v>
+                  <c:v>6757601.9740000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6440410.9330000002</c:v>
+                  <c:v>6732087.6129999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6098206.4050000003</c:v>
+                  <c:v>6775400.4299999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5695503.1909999996</c:v>
+                  <c:v>6762382.3949999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6676267.3619999997</c:v>
+                  <c:v>6726595.9759999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5877572.9280000003</c:v>
+                  <c:v>6750559.6270000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5998304.4009999996</c:v>
+                  <c:v>6770910.4380000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6424080.3039999995</c:v>
+                  <c:v>6742138.8870000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5273422.4560000002</c:v>
+                  <c:v>6741256.2649999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6317640.5920000002</c:v>
+                  <c:v>6679561.949</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6689549.915</c:v>
+                  <c:v>6251898.1459999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6943945.6399999997</c:v>
+                  <c:v>6495458.4359999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6738459.449</c:v>
+                  <c:v>6789725.5379999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6555959.1500000004</c:v>
+                  <c:v>6783040.8959999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6737773.2800000003</c:v>
+                  <c:v>6724198.5899999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6654618.807</c:v>
+                  <c:v>6786075.5630000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6771464.8279999997</c:v>
+                  <c:v>6720927.3449999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6296557.1359999999</c:v>
+                  <c:v>6747236.1260000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7000313.3909999998</c:v>
+                  <c:v>6744524.9129999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6387826.0080000004</c:v>
+                  <c:v>6755624.4380000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6134151.7429999998</c:v>
+                  <c:v>6705519.7620000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5458365.7410000004</c:v>
+                  <c:v>6812661.7970000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6246616.5880000005</c:v>
+                  <c:v>6309794.5619999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5432047.034</c:v>
+                  <c:v>6617793.9060000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5878033.8669999996</c:v>
+                  <c:v>6752863.3600000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6018899.6909999996</c:v>
+                  <c:v>6753070.1090000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6225523.6160000004</c:v>
+                  <c:v>6589967.0109999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,10 +2061,671 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>50</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>次迭代吞吐量均值及置信区间</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>score!$T$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99%置信上界</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>score!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>manual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>beanTransform</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>selmaMapper</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mapStruct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>spring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>score!$U$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7312655.5920000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7104391.4289999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7187582.4309999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5425527.0130000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>479705.51899999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE35-4EB9-AB26-6E9C7AEBC014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>score!$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>score!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>manual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>beanTransform</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>selmaMapper</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mapStruct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>spring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>score!$U$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7159828.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6891863.0690000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6788490.8449999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5250084.2029999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440125.283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE35-4EB9-AB26-6E9C7AEBC014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>score!$T$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99%置信下界</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>score!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>manual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>beanTransform</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>selmaMapper</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mapStruct</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>spring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>score!$U$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6548813.585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6135038.1809999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6251898.1459999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4072041.844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>389049.06800000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DE35-4EB9-AB26-6E9C7AEBC014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1800249055"/>
+        <c:axId val="1800243647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1800249055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800243647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1800243647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777776E-2"/>
+              <c:y val="0.27792717850159443"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800249055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="95000"/>
+        <a:lumOff val="5000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2481,20 +3280,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2516,12 +3818,3793 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4941033" cy="800091"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="289560"/>
+          <a:ext cx="4941033" cy="800091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Result "bean.transform.unittest.jmhtest.Jmh.benchMarkBeanManual"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7159828</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>750 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>±</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>97549</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>112 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ops/s </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Average</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>min</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>avg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6548813</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>585</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7159828</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>750</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7312655</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>592</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>stdev = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>197054</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>032</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>CI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>): [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7062279</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>638</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7257377</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>862</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>] (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>assumes normal distribution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5692140" y="1226820"/>
+          <a:ext cx="5585460" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Result "bean.transform.unittest.jmhtest.Jmh.benchMarkBeanTransformsHandler"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6891863</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>069 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>±</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>131251</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>947 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ops/s </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Average</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>min</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>avg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6135038</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>181</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6891863</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>069</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7104391</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>429</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>stdev = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>265135</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>427</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>CI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>): [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6760611</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>122</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7023115</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>017</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>] (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>assumes normal distribution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5745480" y="2362200"/>
+          <a:ext cx="5661660" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Result "bean.transform.unittest.jmhtest.Jmh.benchMarkMapStruct"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5250084</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>203 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>±</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>118260</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>604 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ops/s </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Average</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>min</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>avg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4072041</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>844</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5250084</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>203</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5425527</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>013</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>stdev = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>238892</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>271</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>CI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>): [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5131823</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>599</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5368344</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>807</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>] (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>assumes normal distribution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631180" y="3566160"/>
+          <a:ext cx="5623560" cy="1280160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Result "bean.transform.unittest.jmhtest.Jmh.benchMarkSelmaMapper"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6788490</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>845 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>±</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>105572</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>909 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ops/s </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Average</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>min</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>avg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6251898</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>146</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6788490</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>845</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7187582</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>431</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>stdev = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>213262</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>498</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>CI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>): [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6682917</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>936</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6894063</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>754</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>] (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>assumes normal distribution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="4968240"/>
+          <a:ext cx="4998720" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Result "bean.transform.unittest.jmhtest.Jmh.benchMarkSpringBeanUtils"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>440125</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>283 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>±</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11278</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>856 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ops/s </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Average</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>min</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>avg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>389049</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>068</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>440125</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>283</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>479705</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>519</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>stdev = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>22783</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>847</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>CI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>): [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>428846</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>427</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>451404</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>138</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>] (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>assumes normal distribution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="spring_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="spring" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SelmaMapper" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="spring" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SelmaMapper" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="manual" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="beanHandler" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mapStruct" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="spring" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mapStruct_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mapStruct_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2529,11 +7612,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="manual_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="manual_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SelmaMapper" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SelmaMapper" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="spring_1" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mapStruct" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="beanHandler" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="manual" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2799,419 +7898,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.21875" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>373203.34299999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>377444.42200000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>374025.47600000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>438136.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>442184.09499999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>442390.34100000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>438816.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>460932.42700000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>471511.44199999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>434441.45699999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>366311.71600000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>438451.837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>479867.603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>433623.47399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>409650.26400000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>383396.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>393287.78200000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>414911.48200000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>388847.12400000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>415421.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>412131.66200000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>415956.01500000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>411291.28100000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>435775.23800000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>452381.49099999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>425381.59600000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>443308.76199999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>492776.29700000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>501212.451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>486738.28899999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>470486.09899999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>409277.38900000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>511314.97200000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>500068.20899999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>492808.19400000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>458321.375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37">
-        <v>496474.51199999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>502106.217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39">
-        <v>495598.49599999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40">
-        <v>499520.25799999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
-        <v>480741.74200000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
-        <v>495820.36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43">
-        <v>499931.598</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
-        <v>488200.27299999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45">
-        <v>509662.353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46">
-        <v>468465.98700000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47">
-        <v>455077.84100000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48">
-        <v>491576.821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49">
-        <v>474357.76000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50">
-        <v>473237.9</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>436548.86300000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>467030.95500000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>431795.342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>461128.38799999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>460432.30499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>442666.25099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>389049.06800000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>443440.24800000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>467529.88900000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>460192.739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>470610.022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>476270.15299999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>461276.88099999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>449654.19799999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>412403.16700000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>427218.29700000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>444238.21299999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>434308.598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>419447.15299999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>409029.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>466800.35499999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>433179.29700000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>441435.45400000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>479705.51899999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>472737.98800000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>453080.76799999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>416476.23499999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>430755.234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>467783.54399999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>443983.56300000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>444952.34700000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>459102.98200000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>445048.56800000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>464061.17300000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>441894.26500000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>466099.72200000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>414093.13799999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>391975.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>406696.571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>423802.29100000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>420571.66600000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>429968.94500000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>409047.29499999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>436631.88099999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>426736.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>433413.61700000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>442397.04300000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>395123.80499999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>435497.44699999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>448941.16</v>
       </c>
     </row>
   </sheetData>
@@ -5308,889 +10254,884 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="B1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C52"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>373203.34299999999</v>
-      </c>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>4284492.8150000004</v>
+        <v>436548.86300000001</v>
       </c>
       <c r="C2">
-        <v>6574828.4919999996</v>
+        <v>5338259.5980000002</v>
       </c>
       <c r="D2">
-        <v>5826101.2029999997</v>
+        <v>6135038.1809999999</v>
       </c>
       <c r="E2">
-        <v>7262458.9850000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>377444.42200000002</v>
-      </c>
+        <v>7255300.699</v>
+      </c>
+      <c r="F2">
+        <v>7183969.6270000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>4265868.8150000004</v>
+        <v>467030.95500000002</v>
       </c>
       <c r="C3">
-        <v>6579724.1969999997</v>
+        <v>4915139.1500000004</v>
       </c>
       <c r="D3">
-        <v>6770340.625</v>
+        <v>6399391.5669999998</v>
       </c>
       <c r="E3">
-        <v>7028776.2379999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>374025.47600000002</v>
-      </c>
+        <v>7269718.0659999996</v>
+      </c>
+      <c r="F3">
+        <v>7187582.4309999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>4239683.4970000004</v>
+        <v>431795.342</v>
       </c>
       <c r="C4">
-        <v>6718278.8480000002</v>
+        <v>5336872.9639999997</v>
       </c>
       <c r="D4">
-        <v>6863338.6950000003</v>
+        <v>6563312.5039999997</v>
       </c>
       <c r="E4">
-        <v>6157115.3949999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>438136.39</v>
-      </c>
+        <v>7181060.0499999998</v>
+      </c>
+      <c r="F4">
+        <v>7171598.8159999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>4222349.9879999999</v>
+        <v>461128.38799999998</v>
       </c>
       <c r="C5">
-        <v>6637470.3940000003</v>
+        <v>5382359.2800000003</v>
       </c>
       <c r="D5">
-        <v>6822207.3530000001</v>
+        <v>6398806.0159999998</v>
       </c>
       <c r="E5">
-        <v>6517188.6189999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>442184.09499999997</v>
-      </c>
+        <v>7217715.0789999999</v>
+      </c>
+      <c r="F5">
+        <v>7079594.4649999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4005141.6570000001</v>
+        <v>460432.30499999999</v>
       </c>
       <c r="C6">
-        <v>6719385.2319999998</v>
+        <v>5346621.5559999999</v>
       </c>
       <c r="D6">
-        <v>6553346.2340000002</v>
+        <v>6267344.2819999997</v>
       </c>
       <c r="E6">
-        <v>6935736.7209999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>442390.34100000001</v>
-      </c>
+        <v>7252730.068</v>
+      </c>
+      <c r="F6">
+        <v>7130952.2050000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>4187539.9180000001</v>
+        <v>442666.25099999999</v>
       </c>
       <c r="C7">
-        <v>6721675.2520000003</v>
+        <v>5404238.5480000004</v>
       </c>
       <c r="D7">
-        <v>6532685.2470000004</v>
+        <v>6937536.1160000004</v>
       </c>
       <c r="E7">
-        <v>6412010.0899999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>438816.22</v>
-      </c>
+        <v>7269830.2220000001</v>
+      </c>
+      <c r="F7">
+        <v>7077172.324</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>4231087.8600000003</v>
+        <v>389049.06800000003</v>
       </c>
       <c r="C8">
-        <v>6787526.0140000004</v>
+        <v>5392030.1600000001</v>
       </c>
       <c r="D8">
-        <v>7151940.3449999997</v>
+        <v>6988272.5789999999</v>
       </c>
       <c r="E8">
-        <v>6387084.5580000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>460932.42700000003</v>
-      </c>
+        <v>7101815.017</v>
+      </c>
+      <c r="F8">
+        <v>7142450.3229999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>3946052.3870000001</v>
+        <v>443440.24800000002</v>
       </c>
       <c r="C9">
-        <v>6678557.1840000004</v>
+        <v>5382175.3629999999</v>
       </c>
       <c r="D9">
-        <v>7015257.2640000004</v>
+        <v>7039682.7860000003</v>
       </c>
       <c r="E9">
-        <v>6553427.6050000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>471511.44199999998</v>
-      </c>
+        <v>7130416.6239999998</v>
+      </c>
+      <c r="F9">
+        <v>7111284.1380000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>4290765.858</v>
+        <v>467529.88900000002</v>
       </c>
       <c r="C10">
-        <v>6882632.9939999999</v>
+        <v>5370684.9139999999</v>
       </c>
       <c r="D10">
-        <v>6940680.1189999999</v>
+        <v>6881569.8059999999</v>
       </c>
       <c r="E10">
-        <v>6540114.5630000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>434441.45699999999</v>
-      </c>
+        <v>6729650.6320000002</v>
+      </c>
+      <c r="F10">
+        <v>7145222.7359999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>4252997.4050000003</v>
+        <v>460192.739</v>
       </c>
       <c r="C11">
-        <v>6796464.693</v>
+        <v>5425527.0130000003</v>
       </c>
       <c r="D11">
-        <v>7155536.6540000001</v>
+        <v>7008791.4170000004</v>
       </c>
       <c r="E11">
-        <v>6804148.6519999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>366311.71600000001</v>
-      </c>
+        <v>7187676.8810000001</v>
+      </c>
+      <c r="F11">
+        <v>6344688.6299999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>4339534.273</v>
+        <v>470610.022</v>
       </c>
       <c r="C12">
-        <v>6668057.5310000004</v>
+        <v>5108135.0130000003</v>
       </c>
       <c r="D12">
-        <v>7135713.0920000002</v>
+        <v>6930505.7240000004</v>
       </c>
       <c r="E12">
-        <v>5246285.5690000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>438451.837</v>
-      </c>
+        <v>7197832.4610000001</v>
+      </c>
+      <c r="F12">
+        <v>6656156.9929999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>4291380.8770000003</v>
+        <v>476270.15299999999</v>
       </c>
       <c r="C13">
-        <v>6641581.2359999996</v>
+        <v>5208499.5109999999</v>
       </c>
       <c r="D13">
-        <v>7060835.1069999998</v>
+        <v>6989297.9560000002</v>
       </c>
       <c r="E13">
-        <v>5749435.2470000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>479867.603</v>
-      </c>
+        <v>7191463.2709999997</v>
+      </c>
+      <c r="F13">
+        <v>6792921.8380000005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>4281181.6619999995</v>
+        <v>461276.88099999999</v>
       </c>
       <c r="C14">
-        <v>6789039.6500000004</v>
+        <v>5365831.801</v>
       </c>
       <c r="D14">
-        <v>6387694.2580000004</v>
+        <v>7018642.8279999997</v>
       </c>
       <c r="E14">
-        <v>6340861.6359999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>433623.47399999999</v>
-      </c>
+        <v>7227717.2029999997</v>
+      </c>
+      <c r="F14">
+        <v>6848509.102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>4235018.8830000004</v>
+        <v>449654.19799999997</v>
       </c>
       <c r="C15">
-        <v>6815968.7910000002</v>
+        <v>4921298.0269999998</v>
       </c>
       <c r="D15">
-        <v>7151227.7570000002</v>
+        <v>7009791.449</v>
       </c>
       <c r="E15">
-        <v>6861154.5860000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>409650.26400000002</v>
-      </c>
+        <v>7273938.5080000004</v>
+      </c>
+      <c r="F15">
+        <v>6796669.8940000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>4241051.216</v>
+        <v>412403.16700000002</v>
       </c>
       <c r="C16">
-        <v>6750945.1399999997</v>
+        <v>5394765.9479999999</v>
       </c>
       <c r="D16">
-        <v>7140940.2989999996</v>
+        <v>7032264.4979999997</v>
       </c>
       <c r="E16">
-        <v>6883406.7209999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>383396.26</v>
-      </c>
+        <v>7253213.977</v>
+      </c>
+      <c r="F16">
+        <v>6865182.7240000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>4249358.8729999997</v>
+        <v>427218.29700000002</v>
       </c>
       <c r="C17">
-        <v>6773320.4380000001</v>
+        <v>5338904.3480000002</v>
       </c>
       <c r="D17">
-        <v>7171577.9680000003</v>
+        <v>6509862.4699999997</v>
       </c>
       <c r="E17">
-        <v>7080772.7740000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>393287.78200000001</v>
-      </c>
+        <v>7185732.8890000004</v>
+      </c>
+      <c r="F17">
+        <v>6819473.1330000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>4300449.0559999999</v>
+        <v>444238.21299999999</v>
       </c>
       <c r="C18">
-        <v>6836207.5109999999</v>
+        <v>4072041.844</v>
       </c>
       <c r="D18">
-        <v>6995419.2379999999</v>
+        <v>6174968.2570000002</v>
       </c>
       <c r="E18">
-        <v>6966536.0939999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>414911.48200000002</v>
-      </c>
+        <v>7281681.2479999997</v>
+      </c>
+      <c r="F18">
+        <v>6849182.7359999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>4118219.8190000001</v>
+        <v>434308.598</v>
       </c>
       <c r="C19">
-        <v>6717376.1179999998</v>
+        <v>4898675.5319999997</v>
       </c>
       <c r="D19">
-        <v>7108712.6809999999</v>
+        <v>7007603.5429999996</v>
       </c>
       <c r="E19">
-        <v>6170025.7249999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>388847.12400000001</v>
-      </c>
+        <v>7216068.5949999997</v>
+      </c>
+      <c r="F19">
+        <v>6841195.0690000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>3789736.1340000001</v>
+        <v>419447.15299999999</v>
       </c>
       <c r="C20">
-        <v>6781721.6320000002</v>
+        <v>5035757.4879999999</v>
       </c>
       <c r="D20">
-        <v>7025913.4040000001</v>
+        <v>7032746.5580000002</v>
       </c>
       <c r="E20">
-        <v>5851727.9759999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>415421.67</v>
-      </c>
+        <v>7248912.5300000003</v>
+      </c>
+      <c r="F20">
+        <v>6867855.9040000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>4172425.5830000001</v>
+        <v>409029.48</v>
       </c>
       <c r="C21">
-        <v>6758113.0650000004</v>
+        <v>4876756.4510000004</v>
       </c>
       <c r="D21">
-        <v>7223464.8090000004</v>
+        <v>7010404.898</v>
       </c>
       <c r="E21">
-        <v>5597424.9589999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>412131.66200000001</v>
-      </c>
+        <v>7243388.9859999996</v>
+      </c>
+      <c r="F21">
+        <v>6862857.5939999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>4260975.03</v>
+        <v>466800.35499999998</v>
       </c>
       <c r="C22">
-        <v>6835551.8370000003</v>
+        <v>5276273.5379999997</v>
       </c>
       <c r="D22">
-        <v>6398955.4570000004</v>
+        <v>7053888.2640000004</v>
       </c>
       <c r="E22">
-        <v>5932766.8650000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>415956.01500000001</v>
-      </c>
+        <v>6697692.3830000004</v>
+      </c>
+      <c r="F22">
+        <v>6849418.6469999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>4236047.0269999998</v>
+        <v>433179.29700000002</v>
       </c>
       <c r="C23">
-        <v>6723766.6449999996</v>
+        <v>5235021.1059999997</v>
       </c>
       <c r="D23">
-        <v>6851507.7750000004</v>
+        <v>7032424.7110000001</v>
       </c>
       <c r="E23">
-        <v>6083257.0499999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>411291.28100000002</v>
-      </c>
+        <v>7290311.9740000004</v>
+      </c>
+      <c r="F23">
+        <v>6487389.426</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>4247026.4989999998</v>
+        <v>441435.45400000003</v>
       </c>
       <c r="C24">
-        <v>6819220.8439999996</v>
+        <v>5331382.6619999995</v>
       </c>
       <c r="D24">
-        <v>7127715.4029999999</v>
+        <v>7002572.3619999997</v>
       </c>
       <c r="E24">
-        <v>6371856.5190000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>435775.23800000001</v>
-      </c>
+        <v>7247934.4170000004</v>
+      </c>
+      <c r="F24">
+        <v>6534337.4330000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>4268860.5439999998</v>
+        <v>479705.51899999997</v>
       </c>
       <c r="C25">
-        <v>6014697.2280000001</v>
+        <v>5402267.3389999997</v>
       </c>
       <c r="D25">
-        <v>7168127.301</v>
+        <v>7032326.1619999995</v>
       </c>
       <c r="E25">
-        <v>7132764.3839999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>452381.49099999998</v>
-      </c>
+        <v>7292627.693</v>
+      </c>
+      <c r="F25">
+        <v>6757601.9740000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>4233759.2019999996</v>
+        <v>472737.98800000001</v>
       </c>
       <c r="C26">
-        <v>5664524.6749999998</v>
+        <v>5018542.2580000004</v>
       </c>
       <c r="D26">
-        <v>7231510.9689999996</v>
+        <v>7033666.1890000002</v>
       </c>
       <c r="E26">
-        <v>6440410.9330000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>425381.59600000002</v>
-      </c>
+        <v>7250260.7039999999</v>
+      </c>
+      <c r="F26">
+        <v>6732087.6129999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>4251264.9970000004</v>
+        <v>453080.76799999998</v>
       </c>
       <c r="C27">
-        <v>5678790.4469999997</v>
+        <v>4951646.97</v>
       </c>
       <c r="D27">
-        <v>6490041.9919999996</v>
+        <v>6954086.8830000004</v>
       </c>
       <c r="E27">
-        <v>6098206.4050000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>443308.76199999999</v>
-      </c>
+        <v>7162672.0279999999</v>
+      </c>
+      <c r="F27">
+        <v>6775400.4299999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>4221658.43</v>
+        <v>416476.23499999999</v>
       </c>
       <c r="C28">
-        <v>6530805.1129999999</v>
+        <v>5370784.1780000003</v>
       </c>
       <c r="D28">
-        <v>6786489.5089999996</v>
+        <v>6697183.1140000001</v>
       </c>
       <c r="E28">
-        <v>5695503.1909999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>492776.29700000002</v>
-      </c>
+        <v>7270227.9630000005</v>
+      </c>
+      <c r="F28">
+        <v>6762382.3949999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>4204783.4859999996</v>
+        <v>430755.234</v>
       </c>
       <c r="C29">
-        <v>6588265.3080000002</v>
+        <v>5371300.2220000001</v>
       </c>
       <c r="D29">
-        <v>7129039.0120000001</v>
+        <v>6999155.943</v>
       </c>
       <c r="E29">
-        <v>6676267.3619999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>501212.451</v>
-      </c>
+        <v>7277355.159</v>
+      </c>
+      <c r="F29">
+        <v>6726595.9759999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>3997705.1370000001</v>
+        <v>467783.54399999999</v>
       </c>
       <c r="C30">
-        <v>6965420.9979999997</v>
+        <v>5397347.1320000002</v>
       </c>
       <c r="D30">
-        <v>7062908.0099999998</v>
+        <v>6558432.5070000002</v>
       </c>
       <c r="E30">
-        <v>5877572.9280000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>486738.28899999999</v>
-      </c>
+        <v>7269588.2019999996</v>
+      </c>
+      <c r="F30">
+        <v>6750559.6270000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>4245276.4040000001</v>
+        <v>443983.56300000002</v>
       </c>
       <c r="C31">
-        <v>6765932.2000000002</v>
+        <v>5386358.9869999997</v>
       </c>
       <c r="D31">
-        <v>7102681.0599999996</v>
+        <v>7005285.6529999999</v>
       </c>
       <c r="E31">
-        <v>5998304.4009999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>470486.09899999999</v>
-      </c>
+        <v>7312655.5920000002</v>
+      </c>
+      <c r="F31">
+        <v>6770910.4380000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>4202080.5729999999</v>
+        <v>444952.34700000001</v>
       </c>
       <c r="C32">
-        <v>6652757.2130000005</v>
+        <v>5382267.8700000001</v>
       </c>
       <c r="D32">
-        <v>7155618.7230000002</v>
+        <v>7016970.1040000003</v>
       </c>
       <c r="E32">
-        <v>6424080.3039999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>409277.38900000002</v>
-      </c>
+        <v>7310106.8260000004</v>
+      </c>
+      <c r="F32">
+        <v>6742138.8870000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>4314411.1670000004</v>
+        <v>459102.98200000002</v>
       </c>
       <c r="C33">
-        <v>6760267.6150000002</v>
+        <v>5323369.5039999997</v>
       </c>
       <c r="D33">
-        <v>7161055.4000000004</v>
+        <v>7041690.9910000004</v>
       </c>
       <c r="E33">
-        <v>5273422.4560000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>511314.97200000001</v>
-      </c>
+        <v>7308852.2580000004</v>
+      </c>
+      <c r="F33">
+        <v>6741256.2649999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>4460442.6909999996</v>
+        <v>445048.56800000003</v>
       </c>
       <c r="C34">
-        <v>6699864.4450000003</v>
+        <v>5342065.9570000004</v>
       </c>
       <c r="D34">
-        <v>7097822.4809999997</v>
+        <v>7014845.6890000002</v>
       </c>
       <c r="E34">
-        <v>6317640.5920000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>500068.20899999997</v>
-      </c>
+        <v>6591874.466</v>
+      </c>
+      <c r="F34">
+        <v>6679561.949</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>4265597.3039999995</v>
+        <v>464061.17300000001</v>
       </c>
       <c r="C35">
-        <v>6668058.9000000004</v>
+        <v>5369018.7019999996</v>
       </c>
       <c r="D35">
-        <v>6940269.7479999997</v>
+        <v>7017168.9479999999</v>
       </c>
       <c r="E35">
-        <v>6689549.915</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>492808.19400000002</v>
-      </c>
+        <v>7213903.2539999997</v>
+      </c>
+      <c r="F35">
+        <v>6251898.1459999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>4325296.7130000005</v>
+        <v>441894.26500000001</v>
       </c>
       <c r="C36">
-        <v>6760301.5779999997</v>
+        <v>5320516.6009999998</v>
       </c>
       <c r="D36">
-        <v>6833421.0080000004</v>
+        <v>7011720.5659999996</v>
       </c>
       <c r="E36">
-        <v>6943945.6399999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>458321.375</v>
-      </c>
+        <v>7186894.4979999997</v>
+      </c>
+      <c r="F36">
+        <v>6495458.4359999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>3846071.0260000001</v>
+        <v>466099.72200000001</v>
       </c>
       <c r="C37">
-        <v>6769012.8720000004</v>
+        <v>5358478.4610000001</v>
       </c>
       <c r="D37">
-        <v>6737051.7790000001</v>
+        <v>6967905.2460000003</v>
       </c>
       <c r="E37">
-        <v>6738459.449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>496474.51199999999</v>
-      </c>
+        <v>7220008.4110000003</v>
+      </c>
+      <c r="F37">
+        <v>6789725.5379999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>4446410.3660000004</v>
+        <v>414093.13799999998</v>
       </c>
       <c r="C38">
-        <v>6819564.6390000004</v>
+        <v>5328384.0939999996</v>
       </c>
       <c r="D38">
-        <v>7214096.7740000002</v>
+        <v>7030897.4639999997</v>
       </c>
       <c r="E38">
-        <v>6555959.1500000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>502106.217</v>
-      </c>
+        <v>6548813.585</v>
+      </c>
+      <c r="F38">
+        <v>6783040.8959999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>4618464.1770000001</v>
+        <v>391975.38</v>
       </c>
       <c r="C39">
-        <v>6832990.4349999996</v>
+        <v>4955433.2640000004</v>
       </c>
       <c r="D39">
-        <v>7166316.4330000002</v>
+        <v>7012731.5690000001</v>
       </c>
       <c r="E39">
-        <v>6737773.2800000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>495598.49599999998</v>
-      </c>
+        <v>7099100.4950000001</v>
+      </c>
+      <c r="F39">
+        <v>6724198.5899999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>4481810.4239999996</v>
+        <v>406696.571</v>
       </c>
       <c r="C40">
-        <v>6729688.6840000004</v>
+        <v>5359214.8720000004</v>
       </c>
       <c r="D40">
-        <v>7154148.5429999996</v>
+        <v>7104391.4289999995</v>
       </c>
       <c r="E40">
-        <v>6654618.807</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>499520.25799999997</v>
-      </c>
+        <v>7237288.7340000002</v>
+      </c>
+      <c r="F40">
+        <v>6786075.5630000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>4782709.9220000003</v>
+        <v>423802.29100000003</v>
       </c>
       <c r="C41">
-        <v>6703453.4270000001</v>
+        <v>5368843.2470000004</v>
       </c>
       <c r="D41">
-        <v>7101875.7060000002</v>
+        <v>7040379.9230000004</v>
       </c>
       <c r="E41">
-        <v>6771464.8279999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>480741.74200000003</v>
-      </c>
+        <v>7269159.4570000004</v>
+      </c>
+      <c r="F41">
+        <v>6720927.3449999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>4931538.4800000004</v>
+        <v>420571.66600000003</v>
       </c>
       <c r="C42">
-        <v>6643674.9060000004</v>
+        <v>5413571.4670000002</v>
       </c>
       <c r="D42">
-        <v>6456127.1710000001</v>
+        <v>6260381.0250000004</v>
       </c>
       <c r="E42">
-        <v>6296557.1359999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>495820.36</v>
-      </c>
+        <v>7258754.0889999997</v>
+      </c>
+      <c r="F42">
+        <v>6747236.1260000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>4902833.7889999999</v>
+        <v>429968.94500000001</v>
       </c>
       <c r="C43">
-        <v>6897703.659</v>
+        <v>5411069.4069999997</v>
       </c>
       <c r="D43">
-        <v>7074647.625</v>
+        <v>7075056.6550000003</v>
       </c>
       <c r="E43">
-        <v>7000313.3909999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>499931.598</v>
-      </c>
+        <v>7289953.5599999996</v>
+      </c>
+      <c r="F43">
+        <v>6744524.9129999997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>4511960.1550000003</v>
+        <v>409047.29499999998</v>
       </c>
       <c r="C44">
-        <v>6815845.4060000004</v>
+        <v>5223004.4819999998</v>
       </c>
       <c r="D44">
-        <v>7106993.2240000004</v>
+        <v>7044510.9929999998</v>
       </c>
       <c r="E44">
-        <v>6387826.0080000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>488200.27299999999</v>
-      </c>
+        <v>7251855.3210000005</v>
+      </c>
+      <c r="F44">
+        <v>6755624.4380000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>4896885.1109999996</v>
+        <v>436631.88099999999</v>
       </c>
       <c r="C45">
-        <v>6748202.2280000001</v>
+        <v>5372656.8990000002</v>
       </c>
       <c r="D45">
-        <v>7184932.1370000001</v>
+        <v>7089525.6600000001</v>
       </c>
       <c r="E45">
-        <v>6134151.7429999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>509662.353</v>
-      </c>
+        <v>7263935.4780000001</v>
+      </c>
+      <c r="F45">
+        <v>6705519.7620000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>4881730.1490000002</v>
+        <v>426736.67</v>
       </c>
       <c r="C46">
-        <v>6729638.5789999999</v>
+        <v>5284475.24</v>
       </c>
       <c r="D46">
-        <v>7221768.3849999998</v>
+        <v>7029195.1339999996</v>
       </c>
       <c r="E46">
-        <v>5458365.7410000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>468465.98700000002</v>
-      </c>
+        <v>6719968.1739999996</v>
+      </c>
+      <c r="F46">
+        <v>6812661.7970000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>4900660.5820000004</v>
+        <v>433413.61700000003</v>
       </c>
       <c r="C47">
-        <v>6804433.4460000005</v>
+        <v>5381766.3470000001</v>
       </c>
       <c r="D47">
-        <v>7089316.4879999999</v>
+        <v>6978571.4199999999</v>
       </c>
       <c r="E47">
-        <v>6246616.5880000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>455077.84100000001</v>
-      </c>
+        <v>7211998.9179999996</v>
+      </c>
+      <c r="F47">
+        <v>6309794.5619999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>4860670.7709999997</v>
+        <v>442397.04300000001</v>
       </c>
       <c r="C48">
-        <v>6783560.3679999998</v>
+        <v>5359449.2479999997</v>
       </c>
       <c r="D48">
-        <v>6674919.6509999996</v>
+        <v>7028005.8830000004</v>
       </c>
       <c r="E48">
-        <v>5432047.034</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>491576.821</v>
-      </c>
+        <v>7244211.0930000003</v>
+      </c>
+      <c r="F48">
+        <v>6617793.9060000004</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>4977791.0159999998</v>
+        <v>395123.80499999999</v>
       </c>
       <c r="C49">
-        <v>6891088.3219999997</v>
+        <v>5414883.5619999999</v>
       </c>
       <c r="D49">
-        <v>6874631.398</v>
+        <v>7065894.0439999998</v>
       </c>
       <c r="E49">
-        <v>5878033.8669999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>474357.76000000001</v>
-      </c>
+        <v>7155597.324</v>
+      </c>
+      <c r="F49">
+        <v>6752863.3600000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>4868579.4850000003</v>
+        <v>435497.44699999999</v>
       </c>
       <c r="C50">
-        <v>5202727.0369999995</v>
+        <v>5355065.057</v>
       </c>
       <c r="D50">
-        <v>7119831.443</v>
+        <v>7029249.8049999997</v>
       </c>
       <c r="E50">
-        <v>6018899.6909999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>473237.9</v>
-      </c>
+        <v>6720007.3619999997</v>
+      </c>
+      <c r="F50">
+        <v>6753070.1090000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>4336170.4910000004</v>
+        <v>448941.16</v>
       </c>
       <c r="C51">
-        <v>6229509.551</v>
+        <v>4925176.9730000002</v>
       </c>
       <c r="D51">
-        <v>7088296.6380000003</v>
+        <v>7029205.7029999997</v>
       </c>
       <c r="E51">
-        <v>6225523.6160000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>6656440.4179999996</v>
+        <v>6901965.0640000002</v>
+      </c>
+      <c r="F51">
+        <v>6589967.0109999999</v>
       </c>
     </row>
   </sheetData>
@@ -6198,4 +11139,952 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y50"/>
+  <sheetViews>
+    <sheetView topLeftCell="P9" workbookViewId="0">
+      <selection activeCell="AC39" sqref="AC39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.77734375" customWidth="1"/>
+    <col min="20" max="20" width="12.21875" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="13.88671875" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>436548.86300000001</v>
+      </c>
+      <c r="B1">
+        <v>5338259.5980000002</v>
+      </c>
+      <c r="C1">
+        <v>6135038.1809999999</v>
+      </c>
+      <c r="D1">
+        <v>7255300.699</v>
+      </c>
+      <c r="E1">
+        <v>7183969.6270000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>467030.95500000002</v>
+      </c>
+      <c r="B2">
+        <v>4915139.1500000004</v>
+      </c>
+      <c r="C2">
+        <v>6399391.5669999998</v>
+      </c>
+      <c r="D2">
+        <v>7269718.0659999996</v>
+      </c>
+      <c r="E2">
+        <v>7187582.4309999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>431795.342</v>
+      </c>
+      <c r="B3">
+        <v>5336872.9639999997</v>
+      </c>
+      <c r="C3">
+        <v>6563312.5039999997</v>
+      </c>
+      <c r="D3">
+        <v>7181060.0499999998</v>
+      </c>
+      <c r="E3">
+        <v>7171598.8159999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>461128.38799999998</v>
+      </c>
+      <c r="B4">
+        <v>5382359.2800000003</v>
+      </c>
+      <c r="C4">
+        <v>6398806.0159999998</v>
+      </c>
+      <c r="D4">
+        <v>7217715.0789999999</v>
+      </c>
+      <c r="E4">
+        <v>7079594.4649999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>460432.30499999999</v>
+      </c>
+      <c r="B5">
+        <v>5346621.5559999999</v>
+      </c>
+      <c r="C5">
+        <v>6267344.2819999997</v>
+      </c>
+      <c r="D5">
+        <v>7252730.068</v>
+      </c>
+      <c r="E5">
+        <v>7130952.2050000001</v>
+      </c>
+      <c r="U5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" t="s">
+        <v>107</v>
+      </c>
+      <c r="X5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>442666.25099999999</v>
+      </c>
+      <c r="B6">
+        <v>5404238.5480000004</v>
+      </c>
+      <c r="C6">
+        <v>6937536.1160000004</v>
+      </c>
+      <c r="D6">
+        <v>7269830.2220000001</v>
+      </c>
+      <c r="E6">
+        <v>7077172.324</v>
+      </c>
+      <c r="T6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6" s="1">
+        <v>7312655.5920000002</v>
+      </c>
+      <c r="V6" s="1">
+        <v>7104391.4289999995</v>
+      </c>
+      <c r="W6" s="1">
+        <v>7187582.4309999999</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5425527.0130000003</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>479705.51899999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>389049.06800000003</v>
+      </c>
+      <c r="B7">
+        <v>5392030.1600000001</v>
+      </c>
+      <c r="C7">
+        <v>6988272.5789999999</v>
+      </c>
+      <c r="D7">
+        <v>7101815.017</v>
+      </c>
+      <c r="E7">
+        <v>7142450.3229999999</v>
+      </c>
+      <c r="T7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U7" s="1">
+        <v>7159828.75</v>
+      </c>
+      <c r="V7" s="1">
+        <v>6891863.0690000001</v>
+      </c>
+      <c r="W7" s="1">
+        <v>6788490.8449999997</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5250084.2029999997</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>440125.283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>443440.24800000002</v>
+      </c>
+      <c r="B8">
+        <v>5382175.3629999999</v>
+      </c>
+      <c r="C8">
+        <v>7039682.7860000003</v>
+      </c>
+      <c r="D8">
+        <v>7130416.6239999998</v>
+      </c>
+      <c r="E8">
+        <v>7111284.1380000003</v>
+      </c>
+      <c r="T8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8" s="1">
+        <v>6548813.585</v>
+      </c>
+      <c r="V8" s="1">
+        <v>6135038.1809999999</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6251898.1459999997</v>
+      </c>
+      <c r="X8" s="1">
+        <v>4072041.844</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>389049.06800000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>467529.88900000002</v>
+      </c>
+      <c r="B9">
+        <v>5370684.9139999999</v>
+      </c>
+      <c r="C9">
+        <v>6881569.8059999999</v>
+      </c>
+      <c r="D9">
+        <v>6729650.6320000002</v>
+      </c>
+      <c r="E9">
+        <v>7145222.7359999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>460192.739</v>
+      </c>
+      <c r="B10">
+        <v>5425527.0130000003</v>
+      </c>
+      <c r="C10">
+        <v>7008791.4170000004</v>
+      </c>
+      <c r="D10">
+        <v>7187676.8810000001</v>
+      </c>
+      <c r="E10">
+        <v>6344688.6299999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>470610.022</v>
+      </c>
+      <c r="B11">
+        <v>5108135.0130000003</v>
+      </c>
+      <c r="C11">
+        <v>6930505.7240000004</v>
+      </c>
+      <c r="D11">
+        <v>7197832.4610000001</v>
+      </c>
+      <c r="E11">
+        <v>6656156.9929999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>476270.15299999999</v>
+      </c>
+      <c r="B12">
+        <v>5208499.5109999999</v>
+      </c>
+      <c r="C12">
+        <v>6989297.9560000002</v>
+      </c>
+      <c r="D12">
+        <v>7191463.2709999997</v>
+      </c>
+      <c r="E12">
+        <v>6792921.8380000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>461276.88099999999</v>
+      </c>
+      <c r="B13">
+        <v>5365831.801</v>
+      </c>
+      <c r="C13">
+        <v>7018642.8279999997</v>
+      </c>
+      <c r="D13">
+        <v>7227717.2029999997</v>
+      </c>
+      <c r="E13">
+        <v>6848509.102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>449654.19799999997</v>
+      </c>
+      <c r="B14">
+        <v>4921298.0269999998</v>
+      </c>
+      <c r="C14">
+        <v>7009791.449</v>
+      </c>
+      <c r="D14">
+        <v>7273938.5080000004</v>
+      </c>
+      <c r="E14">
+        <v>6796669.8940000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>412403.16700000002</v>
+      </c>
+      <c r="B15">
+        <v>5394765.9479999999</v>
+      </c>
+      <c r="C15">
+        <v>7032264.4979999997</v>
+      </c>
+      <c r="D15">
+        <v>7253213.977</v>
+      </c>
+      <c r="E15">
+        <v>6865182.7240000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>427218.29700000002</v>
+      </c>
+      <c r="B16">
+        <v>5338904.3480000002</v>
+      </c>
+      <c r="C16">
+        <v>6509862.4699999997</v>
+      </c>
+      <c r="D16">
+        <v>7185732.8890000004</v>
+      </c>
+      <c r="E16">
+        <v>6819473.1330000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>444238.21299999999</v>
+      </c>
+      <c r="B17">
+        <v>4072041.844</v>
+      </c>
+      <c r="C17">
+        <v>6174968.2570000002</v>
+      </c>
+      <c r="D17">
+        <v>7281681.2479999997</v>
+      </c>
+      <c r="E17">
+        <v>6849182.7359999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>434308.598</v>
+      </c>
+      <c r="B18">
+        <v>4898675.5319999997</v>
+      </c>
+      <c r="C18">
+        <v>7007603.5429999996</v>
+      </c>
+      <c r="D18">
+        <v>7216068.5949999997</v>
+      </c>
+      <c r="E18">
+        <v>6841195.0690000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>419447.15299999999</v>
+      </c>
+      <c r="B19">
+        <v>5035757.4879999999</v>
+      </c>
+      <c r="C19">
+        <v>7032746.5580000002</v>
+      </c>
+      <c r="D19">
+        <v>7248912.5300000003</v>
+      </c>
+      <c r="E19">
+        <v>6867855.9040000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>409029.48</v>
+      </c>
+      <c r="B20">
+        <v>4876756.4510000004</v>
+      </c>
+      <c r="C20">
+        <v>7010404.898</v>
+      </c>
+      <c r="D20">
+        <v>7243388.9859999996</v>
+      </c>
+      <c r="E20">
+        <v>6862857.5939999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>466800.35499999998</v>
+      </c>
+      <c r="B21">
+        <v>5276273.5379999997</v>
+      </c>
+      <c r="C21">
+        <v>7053888.2640000004</v>
+      </c>
+      <c r="D21">
+        <v>6697692.3830000004</v>
+      </c>
+      <c r="E21">
+        <v>6849418.6469999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>433179.29700000002</v>
+      </c>
+      <c r="B22">
+        <v>5235021.1059999997</v>
+      </c>
+      <c r="C22">
+        <v>7032424.7110000001</v>
+      </c>
+      <c r="D22">
+        <v>7290311.9740000004</v>
+      </c>
+      <c r="E22">
+        <v>6487389.426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>441435.45400000003</v>
+      </c>
+      <c r="B23">
+        <v>5331382.6619999995</v>
+      </c>
+      <c r="C23">
+        <v>7002572.3619999997</v>
+      </c>
+      <c r="D23">
+        <v>7247934.4170000004</v>
+      </c>
+      <c r="E23">
+        <v>6534337.4330000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>479705.51899999997</v>
+      </c>
+      <c r="B24">
+        <v>5402267.3389999997</v>
+      </c>
+      <c r="C24">
+        <v>7032326.1619999995</v>
+      </c>
+      <c r="D24">
+        <v>7292627.693</v>
+      </c>
+      <c r="E24">
+        <v>6757601.9740000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>472737.98800000001</v>
+      </c>
+      <c r="B25">
+        <v>5018542.2580000004</v>
+      </c>
+      <c r="C25">
+        <v>7033666.1890000002</v>
+      </c>
+      <c r="D25">
+        <v>7250260.7039999999</v>
+      </c>
+      <c r="E25">
+        <v>6732087.6129999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>453080.76799999998</v>
+      </c>
+      <c r="B26">
+        <v>4951646.97</v>
+      </c>
+      <c r="C26">
+        <v>6954086.8830000004</v>
+      </c>
+      <c r="D26">
+        <v>7162672.0279999999</v>
+      </c>
+      <c r="E26">
+        <v>6775400.4299999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>416476.23499999999</v>
+      </c>
+      <c r="B27">
+        <v>5370784.1780000003</v>
+      </c>
+      <c r="C27">
+        <v>6697183.1140000001</v>
+      </c>
+      <c r="D27">
+        <v>7270227.9630000005</v>
+      </c>
+      <c r="E27">
+        <v>6762382.3949999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>430755.234</v>
+      </c>
+      <c r="B28">
+        <v>5371300.2220000001</v>
+      </c>
+      <c r="C28">
+        <v>6999155.943</v>
+      </c>
+      <c r="D28">
+        <v>7277355.159</v>
+      </c>
+      <c r="E28">
+        <v>6726595.9759999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>467783.54399999999</v>
+      </c>
+      <c r="B29">
+        <v>5397347.1320000002</v>
+      </c>
+      <c r="C29">
+        <v>6558432.5070000002</v>
+      </c>
+      <c r="D29">
+        <v>7269588.2019999996</v>
+      </c>
+      <c r="E29">
+        <v>6750559.6270000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>443983.56300000002</v>
+      </c>
+      <c r="B30">
+        <v>5386358.9869999997</v>
+      </c>
+      <c r="C30">
+        <v>7005285.6529999999</v>
+      </c>
+      <c r="D30">
+        <v>7312655.5920000002</v>
+      </c>
+      <c r="E30">
+        <v>6770910.4380000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>444952.34700000001</v>
+      </c>
+      <c r="B31">
+        <v>5382267.8700000001</v>
+      </c>
+      <c r="C31">
+        <v>7016970.1040000003</v>
+      </c>
+      <c r="D31">
+        <v>7310106.8260000004</v>
+      </c>
+      <c r="E31">
+        <v>6742138.8870000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>459102.98200000002</v>
+      </c>
+      <c r="B32">
+        <v>5323369.5039999997</v>
+      </c>
+      <c r="C32">
+        <v>7041690.9910000004</v>
+      </c>
+      <c r="D32">
+        <v>7308852.2580000004</v>
+      </c>
+      <c r="E32">
+        <v>6741256.2649999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>445048.56800000003</v>
+      </c>
+      <c r="B33">
+        <v>5342065.9570000004</v>
+      </c>
+      <c r="C33">
+        <v>7014845.6890000002</v>
+      </c>
+      <c r="D33">
+        <v>6591874.466</v>
+      </c>
+      <c r="E33">
+        <v>6679561.949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>464061.17300000001</v>
+      </c>
+      <c r="B34">
+        <v>5369018.7019999996</v>
+      </c>
+      <c r="C34">
+        <v>7017168.9479999999</v>
+      </c>
+      <c r="D34">
+        <v>7213903.2539999997</v>
+      </c>
+      <c r="E34">
+        <v>6251898.1459999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>441894.26500000001</v>
+      </c>
+      <c r="B35">
+        <v>5320516.6009999998</v>
+      </c>
+      <c r="C35">
+        <v>7011720.5659999996</v>
+      </c>
+      <c r="D35">
+        <v>7186894.4979999997</v>
+      </c>
+      <c r="E35">
+        <v>6495458.4359999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>466099.72200000001</v>
+      </c>
+      <c r="B36">
+        <v>5358478.4610000001</v>
+      </c>
+      <c r="C36">
+        <v>6967905.2460000003</v>
+      </c>
+      <c r="D36">
+        <v>7220008.4110000003</v>
+      </c>
+      <c r="E36">
+        <v>6789725.5379999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>414093.13799999998</v>
+      </c>
+      <c r="B37">
+        <v>5328384.0939999996</v>
+      </c>
+      <c r="C37">
+        <v>7030897.4639999997</v>
+      </c>
+      <c r="D37">
+        <v>6548813.585</v>
+      </c>
+      <c r="E37">
+        <v>6783040.8959999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>391975.38</v>
+      </c>
+      <c r="B38">
+        <v>4955433.2640000004</v>
+      </c>
+      <c r="C38">
+        <v>7012731.5690000001</v>
+      </c>
+      <c r="D38">
+        <v>7099100.4950000001</v>
+      </c>
+      <c r="E38">
+        <v>6724198.5899999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>406696.571</v>
+      </c>
+      <c r="B39">
+        <v>5359214.8720000004</v>
+      </c>
+      <c r="C39">
+        <v>7104391.4289999995</v>
+      </c>
+      <c r="D39">
+        <v>7237288.7340000002</v>
+      </c>
+      <c r="E39">
+        <v>6786075.5630000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>423802.29100000003</v>
+      </c>
+      <c r="B40">
+        <v>5368843.2470000004</v>
+      </c>
+      <c r="C40">
+        <v>7040379.9230000004</v>
+      </c>
+      <c r="D40">
+        <v>7269159.4570000004</v>
+      </c>
+      <c r="E40">
+        <v>6720927.3449999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>420571.66600000003</v>
+      </c>
+      <c r="B41">
+        <v>5413571.4670000002</v>
+      </c>
+      <c r="C41">
+        <v>6260381.0250000004</v>
+      </c>
+      <c r="D41">
+        <v>7258754.0889999997</v>
+      </c>
+      <c r="E41">
+        <v>6747236.1260000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>429968.94500000001</v>
+      </c>
+      <c r="B42">
+        <v>5411069.4069999997</v>
+      </c>
+      <c r="C42">
+        <v>7075056.6550000003</v>
+      </c>
+      <c r="D42">
+        <v>7289953.5599999996</v>
+      </c>
+      <c r="E42">
+        <v>6744524.9129999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>409047.29499999998</v>
+      </c>
+      <c r="B43">
+        <v>5223004.4819999998</v>
+      </c>
+      <c r="C43">
+        <v>7044510.9929999998</v>
+      </c>
+      <c r="D43">
+        <v>7251855.3210000005</v>
+      </c>
+      <c r="E43">
+        <v>6755624.4380000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>436631.88099999999</v>
+      </c>
+      <c r="B44">
+        <v>5372656.8990000002</v>
+      </c>
+      <c r="C44">
+        <v>7089525.6600000001</v>
+      </c>
+      <c r="D44">
+        <v>7263935.4780000001</v>
+      </c>
+      <c r="E44">
+        <v>6705519.7620000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>426736.67</v>
+      </c>
+      <c r="B45">
+        <v>5284475.24</v>
+      </c>
+      <c r="C45">
+        <v>7029195.1339999996</v>
+      </c>
+      <c r="D45">
+        <v>6719968.1739999996</v>
+      </c>
+      <c r="E45">
+        <v>6812661.7970000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>433413.61700000003</v>
+      </c>
+      <c r="B46">
+        <v>5381766.3470000001</v>
+      </c>
+      <c r="C46">
+        <v>6978571.4199999999</v>
+      </c>
+      <c r="D46">
+        <v>7211998.9179999996</v>
+      </c>
+      <c r="E46">
+        <v>6309794.5619999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>442397.04300000001</v>
+      </c>
+      <c r="B47">
+        <v>5359449.2479999997</v>
+      </c>
+      <c r="C47">
+        <v>7028005.8830000004</v>
+      </c>
+      <c r="D47">
+        <v>7244211.0930000003</v>
+      </c>
+      <c r="E47">
+        <v>6617793.9060000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>395123.80499999999</v>
+      </c>
+      <c r="B48">
+        <v>5414883.5619999999</v>
+      </c>
+      <c r="C48">
+        <v>7065894.0439999998</v>
+      </c>
+      <c r="D48">
+        <v>7155597.324</v>
+      </c>
+      <c r="E48">
+        <v>6752863.3600000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>435497.44699999999</v>
+      </c>
+      <c r="B49">
+        <v>5355065.057</v>
+      </c>
+      <c r="C49">
+        <v>7029249.8049999997</v>
+      </c>
+      <c r="D49">
+        <v>6720007.3619999997</v>
+      </c>
+      <c r="E49">
+        <v>6753070.1090000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>448941.16</v>
+      </c>
+      <c r="B50">
+        <v>4925176.9730000002</v>
+      </c>
+      <c r="C50">
+        <v>7029205.7029999997</v>
+      </c>
+      <c r="D50">
+        <v>6901965.0640000002</v>
+      </c>
+      <c r="E50">
+        <v>6589967.0109999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>